--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.155498</t>
         </is>
       </c>
     </row>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.155498</t>
         </is>
       </c>
     </row>
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.155498</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -918,14 +918,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5122554395138993</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.155498</t>
         </is>
       </c>
     </row>
@@ -948,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.155498</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1302,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.628372</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1398,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1488,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1552,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.4346729307015544</v>
       </c>
       <c r="Y12" t="n">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1582,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1643,17 +1643,13 @@
         <v>1.50560329472288</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.5931264066149118</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1670,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1703,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1743,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.156499</t>
         </is>
       </c>
     </row>
@@ -1760,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1793,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1833,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -1850,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1883,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1923,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -1946,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1963,7 +1959,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2013,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2030,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2063,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2103,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2126,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2143,7 +2139,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2193,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.629371</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2212,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2243,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2283,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.630949</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2300,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2333,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2367,13 +2363,17 @@
         <v>0.8677072862269066</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5843748470046234</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>395</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.630949</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2457,13 +2457,17 @@
         <v>1.056306347020177</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.405083825348819</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.630949</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2480,16 +2484,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2513,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2553,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.630949</t>
+          <t>2025-10-16T12:16:23.157497</t>
         </is>
       </c>
     </row>
@@ -2576,10 +2580,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2603,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2643,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -2660,16 +2664,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2693,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2733,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -2756,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2817,17 +2821,17 @@
         <v>1.156607161215865</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5607344153798228</v>
+        <v>0.5884403511369705</v>
       </c>
       <c r="Y26" t="n">
         <v>404</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2854,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2877,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2917,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -2934,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2967,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -3007,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -3024,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3057,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3097,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -3114,16 +3118,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3147,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3181,13 +3185,17 @@
         <v>0.8732235359179513</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4608484485919075</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>212</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -3204,16 +3212,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3237,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3271,13 +3279,17 @@
         <v>0.9150664587377568</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4863890037284231</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>52</v>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.158497</t>
         </is>
       </c>
     </row>
@@ -3294,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3327,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3367,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.631462</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3384,16 +3396,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3417,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3457,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3497,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3541,17 +3553,13 @@
         <v>0.9601145162706023</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.5246596253655116</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3574,10 +3582,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3601,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3641,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3658,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3691,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3731,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3754,10 +3762,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3771,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3815,17 +3823,13 @@
         <v>1.131529035466786</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.4028159645430169</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3848,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3865,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3912,14 +3916,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.478976303635114</v>
+        <v>0.4436880874433667</v>
       </c>
       <c r="Y38" t="n">
         <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -3936,16 +3940,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3969,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -4003,13 +4007,17 @@
         <v>0.9889402671969006</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.5885707141115961</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>300</v>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.632479</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -4026,16 +4034,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4059,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4099,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -4122,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4149,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4189,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.159496</t>
         </is>
       </c>
     </row>
@@ -4212,10 +4220,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4229,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4279,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4319,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4363,17 +4371,13 @@
         <v>0.8680020708901388</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.5614880310328125</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4390,16 +4394,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4423,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4457,13 +4461,17 @@
         <v>0.9494452685010294</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4148089303468181</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>4</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4480,16 +4488,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4513,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4553,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4576,10 +4584,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4593,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4637,13 +4645,17 @@
         <v>1.0174203194125</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.476585374950758</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>148</v>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4683,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4727,17 +4739,13 @@
         <v>1.01980352238731</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.4609562516316058</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4760,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4824,14 +4832,14 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.5182595575415454</v>
       </c>
       <c r="Y48" t="n">
         <v>411</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4848,16 +4856,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4881,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4915,13 +4923,17 @@
         <v>0.802179136493244</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.4363649934414202</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>54</v>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.633480</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -4938,16 +4950,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4971,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5011,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5051,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5095,17 +5107,17 @@
         <v>1.018472742342629</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y51" t="n">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.160497</t>
         </is>
       </c>
     </row>
@@ -5122,16 +5134,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5155,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5189,13 +5201,17 @@
         <v>0.8301675474508685</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>29</v>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5212,16 +5228,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5245,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5285,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5308,10 +5324,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5325,7 +5341,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5375,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5414,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5425,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5465,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5504,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5505,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5555,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5578,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5595,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5642,14 +5658,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.5458014336081974</v>
+        <v>0.4790300472003629</v>
       </c>
       <c r="Y57" t="n">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5666,16 +5682,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5699,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5739,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5762,10 +5778,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5779,7 +5795,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5829,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.634476</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5852,10 +5868,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5869,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5913,17 +5929,13 @@
         <v>1.02520506861921</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.5657475018303859</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.161496</t>
         </is>
       </c>
     </row>
@@ -5946,10 +5958,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5973,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -6013,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6036,10 +6048,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6053,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6103,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6120,16 +6132,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6153,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6187,13 +6199,17 @@
         <v>0.9372854195315157</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.4621964643431324</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>226</v>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6210,16 +6226,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6243,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -6277,13 +6293,17 @@
         <v>1.037130358190573</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.5223705789444759</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>300</v>
+      </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6306,10 +6326,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6323,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6367,17 +6387,13 @@
         <v>0.9261772089363786</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.4880304987479203</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6394,16 +6410,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6427,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6461,13 +6477,17 @@
         <v>0.9216836981793628</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.4341048247374583</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>288</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6484,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6517,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6551,13 +6571,17 @@
         <v>0.802179136493244</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.4503564591650728</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>127</v>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.162497</t>
         </is>
       </c>
     </row>
@@ -6574,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6607,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6641,13 +6665,17 @@
         <v>0.954811260655284</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.544399754453365</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>233</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.635475</t>
+          <t>2025-10-16T12:16:23.163500</t>
         </is>
       </c>
     </row>
@@ -6670,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6687,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6731,17 +6759,17 @@
         <v>1.005148334189432</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y69" t="n">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.163500</t>
         </is>
       </c>
     </row>
@@ -6758,16 +6786,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6791,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -6831,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.163500</t>
         </is>
       </c>
     </row>
@@ -6854,10 +6882,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6871,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6915,17 +6943,13 @@
         <v>1.025490416015758</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.5859395304685147</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.163500</t>
         </is>
       </c>
     </row>
@@ -6948,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6965,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7009,17 +7033,13 @@
         <v>0.8960078389553137</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.4820765846071259</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.163500</t>
         </is>
       </c>
     </row>
@@ -7036,16 +7056,16 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7069,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7109,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.164500</t>
         </is>
       </c>
     </row>
@@ -7132,10 +7152,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7149,7 +7169,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7199,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.164500</t>
         </is>
       </c>
     </row>
@@ -7222,10 +7242,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7249,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -7289,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.164500</t>
         </is>
       </c>
     </row>
@@ -7306,16 +7326,16 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7339,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7373,13 +7393,17 @@
         <v>0.9712250195934478</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4437528439146141</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.165501</t>
         </is>
       </c>
     </row>
@@ -7396,16 +7420,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7429,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7469,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.165501</t>
         </is>
       </c>
     </row>
@@ -7492,10 +7516,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7509,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7559,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.636476</t>
+          <t>2025-10-16T12:16:23.165501</t>
         </is>
       </c>
     </row>
@@ -7576,16 +7600,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7609,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7643,13 +7667,17 @@
         <v>0.9683814863986268</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.538487206578054</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>72</v>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.637478</t>
+          <t>2025-10-16T12:16:23.166498</t>
         </is>
       </c>
     </row>
@@ -7672,10 +7700,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7689,7 +7717,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7739,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.637478</t>
+          <t>2025-10-16T12:16:23.167501</t>
         </is>
       </c>
     </row>
@@ -7756,16 +7784,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7789,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="O81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -7823,13 +7851,17 @@
         <v>0.9589142374138149</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.5272820822527561</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>26</v>
+      </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.637478</t>
+          <t>2025-10-16T12:16:23.167501</t>
         </is>
       </c>
     </row>
@@ -7852,10 +7884,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7879,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -7919,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.637478</t>
+          <t>2025-10-16T12:16:23.167501</t>
         </is>
       </c>
     </row>
@@ -7942,10 +7974,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7969,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -8009,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.168504</t>
         </is>
       </c>
     </row>
@@ -8026,16 +8058,16 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8059,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="O84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -8093,13 +8125,17 @@
         <v>1.090222089600855</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4092900825439996</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>404</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.168504</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8139,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8189,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.168504</t>
         </is>
       </c>
     </row>
@@ -8212,10 +8248,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8239,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8279,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.168504</t>
         </is>
       </c>
     </row>
@@ -8302,10 +8338,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8329,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8369,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.169501</t>
         </is>
       </c>
     </row>
@@ -8386,16 +8422,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8419,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8459,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.638489</t>
+          <t>2025-10-16T12:16:23.169501</t>
         </is>
       </c>
     </row>
@@ -8476,16 +8512,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8509,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8549,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.170501</t>
         </is>
       </c>
     </row>
@@ -8572,10 +8608,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8599,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8639,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.170501</t>
         </is>
       </c>
     </row>
@@ -8656,16 +8692,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8689,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="O91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -8729,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.170501</t>
         </is>
       </c>
     </row>
@@ -8746,16 +8782,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8779,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8819,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.171502</t>
         </is>
       </c>
     </row>
@@ -8836,16 +8872,16 @@
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8869,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -8909,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.171502</t>
         </is>
       </c>
     </row>
@@ -8932,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8949,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -8999,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.639480</t>
+          <t>2025-10-16T12:16:23.171502</t>
         </is>
       </c>
     </row>
@@ -9016,16 +9052,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9049,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -9083,13 +9119,17 @@
         <v>1.008906616902768</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>75</v>
+      </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.171502</t>
         </is>
       </c>
     </row>
@@ -9106,16 +9146,16 @@
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9139,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="O96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -9173,13 +9213,17 @@
         <v>1.03998183086312</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.4661796049705298</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>72</v>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.172512</t>
         </is>
       </c>
     </row>
@@ -9202,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9219,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9263,17 +9307,13 @@
         <v>0.8891294010557412</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.4561869019374762</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.172759</t>
         </is>
       </c>
     </row>
@@ -9296,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9323,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9363,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.172759</t>
         </is>
       </c>
     </row>
@@ -9380,16 +9420,16 @@
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9413,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -9453,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.172759</t>
         </is>
       </c>
     </row>
@@ -9470,16 +9510,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9503,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9537,13 +9577,17 @@
         <v>0.9090999746558901</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.573235229154987</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>54</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.173525</t>
         </is>
       </c>
     </row>
@@ -9560,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9593,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9633,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.173525</t>
         </is>
       </c>
     </row>
@@ -9650,16 +9694,16 @@
         <v>1</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9683,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9723,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.174525</t>
         </is>
       </c>
     </row>
@@ -9740,16 +9784,16 @@
         <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9773,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9813,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.640479</t>
+          <t>2025-10-16T12:16:23.174525</t>
         </is>
       </c>
     </row>
@@ -9830,16 +9874,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -9863,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9903,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.174525</t>
         </is>
       </c>
     </row>
@@ -9920,16 +9964,16 @@
         <v>1</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9953,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="O105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -9993,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.175524</t>
         </is>
       </c>
     </row>
@@ -10010,16 +10054,16 @@
         <v>1</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -10043,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -10077,13 +10121,17 @@
         <v>0.8984999064099058</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.4364472175576125</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>338</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.175524</t>
         </is>
       </c>
     </row>
@@ -10100,16 +10148,16 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -10133,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10167,13 +10215,17 @@
         <v>0.8138798455909828</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.5657475018303859</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>56</v>
+      </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.176527</t>
         </is>
       </c>
     </row>
@@ -10190,16 +10242,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10223,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -10263,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.181526</t>
         </is>
       </c>
     </row>
@@ -10280,16 +10332,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10313,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10347,13 +10399,17 @@
         <v>0.9032120762778185</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.5766560517837737</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>33</v>
+      </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.182524</t>
         </is>
       </c>
     </row>
@@ -10370,16 +10426,16 @@
         <v>1</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10403,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="O110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -10443,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.185525</t>
         </is>
       </c>
     </row>
@@ -10460,16 +10516,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10493,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10533,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.185525</t>
         </is>
       </c>
     </row>
@@ -10550,16 +10606,16 @@
         <v>1</v>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10583,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10623,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.186525</t>
         </is>
       </c>
     </row>
@@ -10646,10 +10702,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10673,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10713,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.641475</t>
+          <t>2025-10-16T12:16:23.186525</t>
         </is>
       </c>
     </row>
@@ -10730,16 +10786,16 @@
         <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10763,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10803,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.187522</t>
         </is>
       </c>
     </row>
@@ -10826,10 +10882,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10843,7 +10899,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10893,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.187522</t>
         </is>
       </c>
     </row>
@@ -10916,10 +10972,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10943,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -10983,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.188523</t>
         </is>
       </c>
     </row>
@@ -11006,10 +11062,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11023,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11067,17 +11123,13 @@
         <v>0.9889402671969006</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0.4944429850323899</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.188523</t>
         </is>
       </c>
     </row>
@@ -11094,16 +11146,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -11127,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -11161,13 +11213,17 @@
         <v>0.9353131425704025</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>337</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.188523</t>
         </is>
       </c>
     </row>
@@ -11190,10 +11246,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11207,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11251,17 +11307,13 @@
         <v>0.9604515071244812</v>
       </c>
       <c r="W119" t="n">
-        <v>2</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0.4636006949943728</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.188523</t>
         </is>
       </c>
     </row>
@@ -11278,16 +11330,16 @@
         <v>1</v>
       </c>
       <c r="D120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11311,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="O120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -11345,13 +11397,17 @@
         <v>0.929415747078514</v>
       </c>
       <c r="W120" t="n">
-        <v>0</v>
-      </c>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.5366527037650917</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>176</v>
+      </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11374,10 +11430,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11391,7 +11447,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11441,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11464,10 +11520,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11491,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11531,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11554,10 +11610,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11571,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11615,17 +11671,13 @@
         <v>0.8843436806247057</v>
       </c>
       <c r="W123" t="n">
-        <v>1</v>
-      </c>
-      <c r="X123" t="n">
-        <v>0.5684569549189997</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.642475</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11648,10 +11700,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11665,7 +11717,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11715,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11738,10 +11790,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -11755,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11805,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11828,10 +11880,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -11855,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11895,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -11918,10 +11970,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G127" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -11935,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -11985,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.189525</t>
         </is>
       </c>
     </row>
@@ -12002,16 +12054,16 @@
         <v>1</v>
       </c>
       <c r="D128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -12035,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -12075,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12092,16 +12144,16 @@
         <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12125,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -12165,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12182,16 +12234,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G130" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12215,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -12255,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12272,16 +12324,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G131" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12305,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12345,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12362,16 +12414,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G132" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12395,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12429,13 +12481,17 @@
         <v>1.039621612633381</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
-      </c>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.5416145155592091</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>419</v>
+      </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.643476</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12458,10 +12514,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G133" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12475,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12519,17 +12575,13 @@
         <v>1.050357901816062</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.4579502905827536</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12546,16 +12598,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G134" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12579,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12619,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.190523</t>
         </is>
       </c>
     </row>
@@ -12642,10 +12694,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -12669,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12709,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -12732,10 +12784,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G136" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -12749,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12793,17 +12845,17 @@
         <v>1.108962842787002</v>
       </c>
       <c r="W136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X136" t="n">
-        <v>0.4455870325083883</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y136" t="n">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -12820,16 +12872,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -12853,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12893,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -12916,10 +12968,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -12933,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -12977,17 +13029,13 @@
         <v>0.9361498527578108</v>
       </c>
       <c r="W138" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" t="n">
-        <v>0.4127116700572048</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13004,16 +13052,16 @@
         <v>1</v>
       </c>
       <c r="D139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G139" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -13037,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -13077,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.644475</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13094,16 +13142,16 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -13127,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -13161,13 +13209,17 @@
         <v>0.8225494673089303</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.5197316968394073</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>65</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13190,10 +13242,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -13207,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13251,17 +13303,13 @@
         <v>1.085249302933645</v>
       </c>
       <c r="W141" t="n">
-        <v>2</v>
-      </c>
-      <c r="X141" t="n">
-        <v>0.5275114942710426</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13284,10 +13332,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -13301,7 +13349,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13351,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13374,10 +13422,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -13391,7 +13439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13441,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.191523</t>
         </is>
       </c>
     </row>
@@ -13458,16 +13506,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G144" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -13491,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13531,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -13554,10 +13602,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -13571,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13615,17 +13663,13 @@
         <v>1.08976834120121</v>
       </c>
       <c r="W145" t="n">
-        <v>2</v>
-      </c>
-      <c r="X145" t="n">
-        <v>0.5454543991712841</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -13642,16 +13686,16 @@
         <v>1</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G146" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -13675,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13715,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -13738,10 +13782,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G147" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -13755,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13799,17 +13843,13 @@
         <v>0.9569106201527909</v>
       </c>
       <c r="W147" t="n">
-        <v>1</v>
-      </c>
-      <c r="X147" t="n">
-        <v>0.542648957444599</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -13826,16 +13866,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G148" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -13859,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13893,13 +13933,17 @@
         <v>0.9605692933263986</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.5005358046457723</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>109</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.645477</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -13916,16 +13960,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -13949,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -13989,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -14006,16 +14050,16 @@
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G150" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -14039,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -14079,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -14102,10 +14146,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -14119,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14169,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -14192,10 +14236,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -14209,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14253,17 +14297,13 @@
         <v>0.9946846903816249</v>
       </c>
       <c r="W152" t="n">
-        <v>4</v>
-      </c>
-      <c r="X152" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -14280,16 +14320,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G153" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -14313,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -14353,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.192523</t>
         </is>
       </c>
     </row>
@@ -14376,10 +14416,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G154" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -14403,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14443,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14466,10 +14506,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G155" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -14483,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14527,17 +14567,13 @@
         <v>1.051369702299368</v>
       </c>
       <c r="W155" t="n">
-        <v>2</v>
-      </c>
-      <c r="X155" t="n">
-        <v>0.4777354579378964</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.646475</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14554,16 +14590,16 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -14587,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14627,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14644,16 +14680,16 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G157" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -14677,7 +14713,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14711,13 +14747,17 @@
         <v>0.9362791694823388</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
-      </c>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>333</v>
+      </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14734,16 +14774,16 @@
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G158" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -14767,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14807,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14824,16 +14864,16 @@
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G159" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -14857,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14897,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -14920,10 +14960,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -14937,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -14981,13 +15021,17 @@
         <v>1.046213754387062</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
-      </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0.4281848449949526</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>246</v>
+      </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -15010,10 +15054,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -15037,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -15077,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -15094,16 +15138,16 @@
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -15127,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -15167,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.647478</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -15190,10 +15234,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -15207,7 +15251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15257,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.648477</t>
+          <t>2025-10-16T12:16:23.193522</t>
         </is>
       </c>
     </row>
@@ -15274,16 +15318,16 @@
         <v>1</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -15307,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="O164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -15347,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.648477</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15370,10 +15414,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -15387,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15437,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.648477</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15460,10 +15504,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G166" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -15477,7 +15521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15527,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.649479</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15550,10 +15594,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -15567,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15611,17 +15655,17 @@
         <v>0.9564534158370381</v>
       </c>
       <c r="W167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X167" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.4244175909401347</v>
       </c>
       <c r="Y167" t="n">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.649479</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15638,16 +15682,16 @@
         <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G168" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -15671,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="O168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -15705,13 +15749,17 @@
         <v>0.9103351129397802</v>
       </c>
       <c r="W168" t="n">
-        <v>0</v>
-      </c>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0.5295380241082724</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>165</v>
+      </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.649479</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15734,10 +15782,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -15751,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15795,17 +15843,17 @@
         <v>0.9613555918369714</v>
       </c>
       <c r="W169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X169" t="n">
-        <v>0.5785117996979956</v>
+        <v>0.4601756619633539</v>
       </c>
       <c r="Y169" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.649479</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15822,16 +15870,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G170" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -15855,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15889,13 +15937,17 @@
         <v>0.8839027240873228</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5443459042329746</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>281</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.650481</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>
@@ -15918,10 +15970,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G171" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -15935,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -15979,17 +16031,17 @@
         <v>0.9751910468190422</v>
       </c>
       <c r="W171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.5266807513020847</v>
+        <v>0.4850311748982489</v>
       </c>
       <c r="Y171" t="n">
         <v>189</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:49.650481</t>
+          <t>2025-10-16T12:16:23.194522</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.522140</t>
+          <t>2025-10-17T07:09:23.947575</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.522140</t>
+          <t>2025-10-17T07:09:23.947575</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.523141</t>
+          <t>2025-10-17T07:09:23.947575</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.523141</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.523141</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.523141</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.523141</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.524135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.524135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.524135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.524135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.525135</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.526136</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.526136</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.526136</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.526136</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.526136</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.534391</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.534391</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.535392</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.536393</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.537644</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.538155</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.539165</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.540163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.541163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8459,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.542163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8729,7 +8729,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8999,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9179,7 +9179,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.543163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.948109</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.959121</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.959215</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.959215</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.959215</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.544163</t>
+          <t>2025-10-17T07:09:23.959215</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.545267</t>
+          <t>2025-10-17T07:09:23.959215</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.545267</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.545267</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.545267</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -10803,7 +10803,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.546270</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.546270</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.546270</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.546270</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.546270</t>
+          <t>2025-10-17T07:09:23.959726</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.547266</t>
+          <t>2025-10-17T07:09:23.961007</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.547266</t>
+          <t>2025-10-17T07:09:23.961007</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.547266</t>
+          <t>2025-10-17T07:09:23.961007</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.547266</t>
+          <t>2025-10-17T07:09:23.961007</t>
         </is>
       </c>
     </row>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.549265</t>
+          <t>2025-10-17T07:09:23.962006</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.549265</t>
+          <t>2025-10-17T07:09:23.962006</t>
         </is>
       </c>
     </row>
@@ -11805,7 +11805,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.962006</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.963010</t>
         </is>
       </c>
     </row>
@@ -11985,7 +11985,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.963010</t>
         </is>
       </c>
     </row>
@@ -12075,7 +12075,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.963010</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.963010</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.964008</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.964008</t>
         </is>
       </c>
     </row>
@@ -12435,7 +12435,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.964008</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.550265</t>
+          <t>2025-10-17T07:09:23.964008</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.964008</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.965007</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.965007</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.965007</t>
         </is>
       </c>
     </row>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.965007</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.965007</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.966005</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.551263</t>
+          <t>2025-10-17T07:09:23.966005</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.966005</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.966005</t>
         </is>
       </c>
     </row>
@@ -13531,7 +13531,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.966005</t>
         </is>
       </c>
     </row>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.967004</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13715,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.967004</t>
         </is>
       </c>
     </row>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.967004</t>
         </is>
       </c>
     </row>
@@ -13899,7 +13899,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.967004</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14079,7 +14079,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14169,7 +14169,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.552263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.553263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14353,7 +14353,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.553263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.553263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.553263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14627,7 +14627,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.553263</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14717,7 +14717,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.554270</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14807,7 +14807,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.554270</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14897,7 +14897,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.554270</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -14987,7 +14987,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.554270</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15077,7 +15077,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.554270</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15167,7 +15167,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.555268</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.555268</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15347,7 +15347,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.555268</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15437,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.555268</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15527,7 +15527,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.555268</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.556269</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.556269</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.556269</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.556269</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:05.556269</t>
+          <t>2025-10-17T07:09:23.968471</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.8631205685666311</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.947575</t>
+          <t>2025-10-19T23:54:56.772052</t>
         </is>
       </c>
     </row>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.947575</t>
+          <t>2025-10-19T23:54:56.772052</t>
         </is>
       </c>
     </row>
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.947575</t>
+          <t>2025-10-19T23:54:56.772052</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -918,14 +918,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5122554395138993</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.772052</t>
         </is>
       </c>
     </row>
@@ -948,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.5916727785823274</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0.8631205685666311</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1302,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1398,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.773050</t>
         </is>
       </c>
     </row>
@@ -1488,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1552,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.4346729307015544</v>
       </c>
       <c r="Y12" t="n">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.774049</t>
         </is>
       </c>
     </row>
@@ -1582,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1643,17 +1643,13 @@
         <v>1.505603194236755</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.5931264066149118</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.774049</t>
         </is>
       </c>
     </row>
@@ -1670,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1693,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1703,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1743,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.774049</t>
         </is>
       </c>
     </row>
@@ -1760,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1783,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1793,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1833,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.774049</t>
         </is>
       </c>
     </row>
@@ -1850,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1873,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1883,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1923,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775048</t>
         </is>
       </c>
     </row>
@@ -1946,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1963,7 +1959,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2013,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775048</t>
         </is>
       </c>
     </row>
@@ -2030,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2053,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2063,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2103,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775367</t>
         </is>
       </c>
     </row>
@@ -2126,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2143,7 +2139,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2193,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775367</t>
         </is>
       </c>
     </row>
@@ -2216,10 +2212,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2233,7 +2229,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.5916727785823274</v>
@@ -2243,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2283,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775914</t>
         </is>
       </c>
     </row>
@@ -2300,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2323,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2333,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2367,13 +2363,17 @@
         <v>0.8677072525024414</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5843748470046234</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>395</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775914</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2457,13 +2457,17 @@
         <v>1.0563063621521</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.405083825348819</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775914</t>
         </is>
       </c>
     </row>
@@ -2480,16 +2484,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2503,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2513,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2553,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.775914</t>
         </is>
       </c>
     </row>
@@ -2576,10 +2580,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2593,7 +2597,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2603,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2643,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.776895</t>
         </is>
       </c>
     </row>
@@ -2660,16 +2664,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2683,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2693,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2733,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.776895</t>
         </is>
       </c>
     </row>
@@ -2756,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2817,17 +2821,17 @@
         <v>1.156607151031494</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5607344153798228</v>
+        <v>0.5884403511369705</v>
       </c>
       <c r="Y26" t="n">
         <v>404</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.776895</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2854,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2867,7 +2871,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>0.5916727785823274</v>
@@ -2877,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2917,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.776895</t>
         </is>
       </c>
     </row>
@@ -2934,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2957,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2967,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -3007,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.776895</t>
         </is>
       </c>
     </row>
@@ -3024,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3047,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3057,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3097,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.777895</t>
         </is>
       </c>
     </row>
@@ -3114,16 +3118,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3137,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3147,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3181,13 +3185,17 @@
         <v>0.8732233643531799</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4608484485919075</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>212</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.777895</t>
         </is>
       </c>
     </row>
@@ -3204,16 +3212,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3227,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3237,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3271,13 +3279,17 @@
         <v>0.9150664806365967</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4863890037284231</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>52</v>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.777895</t>
         </is>
       </c>
     </row>
@@ -3294,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3317,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3327,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3367,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.777895</t>
         </is>
       </c>
     </row>
@@ -3384,16 +3396,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3407,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3417,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3457,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.778895</t>
         </is>
       </c>
     </row>
@@ -3480,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3497,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3541,17 +3553,13 @@
         <v>0.9601144194602966</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.5246596253655116</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.778895</t>
         </is>
       </c>
     </row>
@@ -3574,10 +3582,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3591,7 +3599,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0.9852281360342515</v>
@@ -3601,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3641,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.778895</t>
         </is>
       </c>
     </row>
@@ -3658,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3681,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3691,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3731,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.778895</t>
         </is>
       </c>
     </row>
@@ -3754,10 +3762,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3771,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3815,17 +3823,13 @@
         <v>1.131529092788696</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.4028159645430169</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.778895</t>
         </is>
       </c>
     </row>
@@ -3848,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3865,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3912,14 +3916,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.478976303635114</v>
+        <v>0.4436880874433667</v>
       </c>
       <c r="Y38" t="n">
         <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.779895</t>
         </is>
       </c>
     </row>
@@ -3936,16 +3940,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3959,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3969,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -4003,13 +4007,17 @@
         <v>0.9889402985572815</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.5885707141115961</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>300</v>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.779895</t>
         </is>
       </c>
     </row>
@@ -4026,16 +4034,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4049,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4059,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4099,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.779895</t>
         </is>
       </c>
     </row>
@@ -4122,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4139,7 +4147,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>0.5916727785823274</v>
@@ -4149,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4189,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.779895</t>
         </is>
       </c>
     </row>
@@ -4212,10 +4220,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4229,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4279,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.779895</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4319,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4363,17 +4371,13 @@
         <v>0.8680020570755005</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.5614880310328125</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.781897</t>
         </is>
       </c>
     </row>
@@ -4390,16 +4394,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4413,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4423,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4457,13 +4461,17 @@
         <v>0.949445366859436</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4148089303468181</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>4</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.781897</t>
         </is>
       </c>
     </row>
@@ -4480,16 +4488,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4503,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4513,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4553,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -4576,10 +4584,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4593,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4637,13 +4645,17 @@
         <v>1.017420291900635</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.476585374950758</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>148</v>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4683,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4727,17 +4739,13 @@
         <v>1.019803524017334</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.4609562516316058</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -4760,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4824,14 +4832,14 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.5182595575415454</v>
       </c>
       <c r="Y48" t="n">
         <v>411</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -4848,16 +4856,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4871,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4881,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4915,13 +4923,17 @@
         <v>0.8021791577339172</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.4363649934414202</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>54</v>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -4938,16 +4950,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4961,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4971,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5011,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.782898</t>
         </is>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5051,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5095,17 +5107,17 @@
         <v>1.018472790718079</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y51" t="n">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.783894</t>
         </is>
       </c>
     </row>
@@ -5122,16 +5134,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5145,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5155,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5189,13 +5201,17 @@
         <v>0.8301675319671631</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>29</v>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.783894</t>
         </is>
       </c>
     </row>
@@ -5212,16 +5228,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5235,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5245,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5285,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.783894</t>
         </is>
       </c>
     </row>
@@ -5308,10 +5324,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5325,7 +5341,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5375,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.783894</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5414,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5415,7 +5431,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>0.5916727785823274</v>
@@ -5425,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5465,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.783894</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5504,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5505,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5555,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -5578,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5595,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5642,14 +5658,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.5458014336081974</v>
+        <v>0.4790300472003629</v>
       </c>
       <c r="Y57" t="n">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -5666,16 +5682,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5689,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5699,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5739,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -5762,10 +5778,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5779,7 +5795,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5829,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -5852,10 +5868,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5869,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5913,17 +5929,13 @@
         <v>1.025205135345459</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.5657475018303859</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -5946,10 +5958,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5963,7 +5975,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>0.5916727785823274</v>
@@ -5973,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -6013,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.784895</t>
         </is>
       </c>
     </row>
@@ -6036,10 +6048,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6053,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6103,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6120,16 +6132,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6143,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6153,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6187,13 +6199,17 @@
         <v>0.9372854828834534</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.4621964643431324</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>226</v>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6210,16 +6226,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6233,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6243,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -6277,13 +6293,17 @@
         <v>1.03713047504425</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.5223705789444759</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>300</v>
+      </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6306,10 +6326,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6323,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6367,17 +6387,13 @@
         <v>0.9261773228645325</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.4880304987479203</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6394,16 +6410,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6417,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6427,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6461,13 +6477,17 @@
         <v>0.921683669090271</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.4341048247374583</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>288</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6484,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6507,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6517,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6551,13 +6571,17 @@
         <v>0.8021791577339172</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.4503564591650728</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>127</v>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.785894</t>
         </is>
       </c>
     </row>
@@ -6574,16 +6598,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6597,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6607,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6641,13 +6665,17 @@
         <v>0.9548112750053406</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.544399754453365</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>233</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.786894</t>
         </is>
       </c>
     </row>
@@ -6670,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6687,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6731,17 +6759,17 @@
         <v>1.00514829158783</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y69" t="n">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -6758,16 +6786,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6781,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6791,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -6831,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -6854,10 +6882,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6871,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6915,17 +6943,13 @@
         <v>1.025490403175354</v>
       </c>
       <c r="W71" t="n">
-        <v>3</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.5859395304685147</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -6948,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6965,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7009,17 +7033,13 @@
         <v>0.8960078954696655</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.4820765846071259</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -7036,16 +7056,16 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7059,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7069,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7109,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -7132,10 +7152,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7149,7 +7169,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7199,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.787427</t>
         </is>
       </c>
     </row>
@@ -7222,10 +7242,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7239,7 +7259,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7249,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -7289,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.788419</t>
         </is>
       </c>
     </row>
@@ -7306,16 +7326,16 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7329,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7339,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7373,13 +7393,17 @@
         <v>0.9712249636650085</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4437528439146141</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.788419</t>
         </is>
       </c>
     </row>
@@ -7396,16 +7420,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7419,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7429,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7469,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.788419</t>
         </is>
       </c>
     </row>
@@ -7492,10 +7516,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7509,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7559,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.789420</t>
         </is>
       </c>
     </row>
@@ -7576,16 +7600,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7599,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7609,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7643,13 +7667,17 @@
         <v>0.9683815240859985</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.538487206578054</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>72</v>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.789420</t>
         </is>
       </c>
     </row>
@@ -7672,10 +7700,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7739,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.789420</t>
         </is>
       </c>
     </row>
@@ -7756,16 +7784,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7779,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7789,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="O81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -7823,13 +7851,17 @@
         <v>0.9589142203330994</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.5272820822527561</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>26</v>
+      </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.789420</t>
         </is>
       </c>
     </row>
@@ -7852,10 +7884,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7869,7 +7901,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>0.8631205685666311</v>
@@ -7879,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -7919,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.789420</t>
         </is>
       </c>
     </row>
@@ -7942,10 +7974,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7959,7 +7991,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -7969,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -8009,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.790419</t>
         </is>
       </c>
     </row>
@@ -8026,16 +8058,16 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8049,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -8059,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="O84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -8093,13 +8125,17 @@
         <v>1.090222120285034</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4092900825439996</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>404</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.790419</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8139,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8189,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.790419</t>
         </is>
       </c>
     </row>
@@ -8212,10 +8248,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8229,7 +8265,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="n">
         <v>0.8631205685666311</v>
@@ -8239,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8279,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.790419</t>
         </is>
       </c>
     </row>
@@ -8302,10 +8338,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8319,7 +8355,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>0.8631205685666311</v>
@@ -8329,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8369,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.791419</t>
         </is>
       </c>
     </row>
@@ -8386,16 +8422,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8409,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -8419,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8459,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.791419</t>
         </is>
       </c>
     </row>
@@ -8476,16 +8512,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8499,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8509,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8549,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.791419</t>
         </is>
       </c>
     </row>
@@ -8572,10 +8608,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8589,7 +8625,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>0.9852281360342515</v>
@@ -8599,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8639,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.791419</t>
         </is>
       </c>
     </row>
@@ -8656,16 +8692,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8679,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -8689,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="O91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -8729,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.791419</t>
         </is>
       </c>
     </row>
@@ -8746,16 +8782,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8769,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8779,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8819,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.792420</t>
         </is>
       </c>
     </row>
@@ -8836,16 +8872,16 @@
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8859,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8869,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -8909,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.792420</t>
         </is>
       </c>
     </row>
@@ -8932,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8949,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -8999,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.792420</t>
         </is>
       </c>
     </row>
@@ -9016,16 +9052,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9039,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -9049,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -9083,13 +9119,17 @@
         <v>1.008906602859497</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>75</v>
+      </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.792420</t>
         </is>
       </c>
     </row>
@@ -9106,16 +9146,16 @@
         <v>1</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9129,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9139,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="O96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -9173,13 +9213,17 @@
         <v>1.039981722831726</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.4661796049705298</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>72</v>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.792420</t>
         </is>
       </c>
     </row>
@@ -9202,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9219,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9263,17 +9307,13 @@
         <v>0.8891294002532959</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.4561869019374762</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.793420</t>
         </is>
       </c>
     </row>
@@ -9296,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9313,7 +9353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>0.5916727785823274</v>
@@ -9323,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9363,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.793420</t>
         </is>
       </c>
     </row>
@@ -9380,16 +9420,16 @@
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9403,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9413,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -9453,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.793420</t>
         </is>
       </c>
     </row>
@@ -9470,16 +9510,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9493,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9503,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9537,13 +9577,17 @@
         <v>0.9090999364852905</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.573235229154987</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>54</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.793420</t>
         </is>
       </c>
     </row>
@@ -9560,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9583,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -9593,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9633,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.794422</t>
         </is>
       </c>
     </row>
@@ -9650,16 +9694,16 @@
         <v>1</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9673,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -9683,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9723,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.794422</t>
         </is>
       </c>
     </row>
@@ -9740,16 +9784,16 @@
         <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9763,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -9773,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9813,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.794422</t>
         </is>
       </c>
     </row>
@@ -9830,16 +9874,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -9853,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -9863,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9903,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.948109</t>
+          <t>2025-10-19T23:54:56.794422</t>
         </is>
       </c>
     </row>
@@ -9920,16 +9964,16 @@
         <v>1</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9943,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9953,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="O105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -9993,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959121</t>
+          <t>2025-10-19T23:54:56.794422</t>
         </is>
       </c>
     </row>
@@ -10010,16 +10054,16 @@
         <v>1</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -10033,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -10043,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -10077,13 +10121,17 @@
         <v>0.8985000252723694</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.4364472175576125</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>338</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959215</t>
+          <t>2025-10-19T23:54:56.795421</t>
         </is>
       </c>
     </row>
@@ -10100,16 +10148,16 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -10123,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10133,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10167,13 +10215,17 @@
         <v>0.8138799071311951</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.5657475018303859</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>56</v>
+      </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959215</t>
+          <t>2025-10-19T23:54:56.795421</t>
         </is>
       </c>
     </row>
@@ -10190,16 +10242,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10213,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -10223,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -10263,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959215</t>
+          <t>2025-10-19T23:54:56.795421</t>
         </is>
       </c>
     </row>
@@ -10280,16 +10332,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10303,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -10313,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10347,13 +10399,17 @@
         <v>0.9032120704650879</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.5766560517837737</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>33</v>
+      </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959215</t>
+          <t>2025-10-19T23:54:56.795421</t>
         </is>
       </c>
     </row>
@@ -10370,16 +10426,16 @@
         <v>1</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10393,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10403,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="O110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -10443,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959215</t>
+          <t>2025-10-19T23:54:56.795421</t>
         </is>
       </c>
     </row>
@@ -10460,16 +10516,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10483,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -10493,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10533,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.796423</t>
         </is>
       </c>
     </row>
@@ -10550,16 +10606,16 @@
         <v>1</v>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10573,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -10583,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10623,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.796423</t>
         </is>
       </c>
     </row>
@@ -10646,10 +10702,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10663,7 +10719,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L113" t="n">
         <v>0.5916727785823274</v>
@@ -10673,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10713,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.796423</t>
         </is>
       </c>
     </row>
@@ -10730,16 +10786,16 @@
         <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10753,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -10763,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10803,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.796423</t>
         </is>
       </c>
     </row>
@@ -10826,10 +10882,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10843,7 +10899,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10893,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.797420</t>
         </is>
       </c>
     </row>
@@ -10916,10 +10972,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10933,7 +10989,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L116" t="n">
         <v>0.5916727785823274</v>
@@ -10943,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -10983,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.797420</t>
         </is>
       </c>
     </row>
@@ -11006,10 +11062,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11023,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11067,17 +11123,13 @@
         <v>0.9889402985572815</v>
       </c>
       <c r="W117" t="n">
-        <v>2</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0.4944429850323899</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.797420</t>
         </is>
       </c>
     </row>
@@ -11094,16 +11146,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -11117,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -11127,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -11161,13 +11213,17 @@
         <v>0.9353132247924805</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>337</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.959726</t>
+          <t>2025-10-19T23:54:56.798423</t>
         </is>
       </c>
     </row>
@@ -11190,10 +11246,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11207,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11251,17 +11307,13 @@
         <v>0.960451602935791</v>
       </c>
       <c r="W119" t="n">
-        <v>2</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0.4636006949943728</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.961007</t>
+          <t>2025-10-19T23:54:56.799425</t>
         </is>
       </c>
     </row>
@@ -11278,16 +11330,16 @@
         <v>1</v>
       </c>
       <c r="D120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11301,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -11311,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="O120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -11345,13 +11397,17 @@
         <v>0.9294157028198242</v>
       </c>
       <c r="W120" t="n">
-        <v>0</v>
-      </c>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.5366527037650917</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>176</v>
+      </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.961007</t>
+          <t>2025-10-19T23:54:56.800426</t>
         </is>
       </c>
     </row>
@@ -11374,10 +11430,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11391,7 +11447,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11441,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.961007</t>
+          <t>2025-10-19T23:54:56.800426</t>
         </is>
       </c>
     </row>
@@ -11464,10 +11520,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11481,7 +11537,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="n">
         <v>0.8631205685666311</v>
@@ -11491,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11531,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.961007</t>
+          <t>2025-10-19T23:54:56.800426</t>
         </is>
       </c>
     </row>
@@ -11554,10 +11610,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11571,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11615,17 +11671,13 @@
         <v>0.8843437433242798</v>
       </c>
       <c r="W123" t="n">
-        <v>1</v>
-      </c>
-      <c r="X123" t="n">
-        <v>0.5684569549189997</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.962006</t>
+          <t>2025-10-19T23:54:56.800426</t>
         </is>
       </c>
     </row>
@@ -11648,10 +11700,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11665,7 +11717,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11715,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.962006</t>
+          <t>2025-10-19T23:54:56.801424</t>
         </is>
       </c>
     </row>
@@ -11738,10 +11790,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -11755,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11805,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.962006</t>
+          <t>2025-10-19T23:54:56.801424</t>
         </is>
       </c>
     </row>
@@ -11828,10 +11880,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -11845,7 +11897,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L126" t="n">
         <v>0.9852281360342515</v>
@@ -11855,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11895,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.963010</t>
+          <t>2025-10-19T23:54:56.801424</t>
         </is>
       </c>
     </row>
@@ -11918,10 +11970,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -11935,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -11985,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.963010</t>
+          <t>2025-10-19T23:54:56.801424</t>
         </is>
       </c>
     </row>
@@ -12002,16 +12054,16 @@
         <v>1</v>
       </c>
       <c r="D128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -12025,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -12035,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -12075,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.963010</t>
+          <t>2025-10-19T23:54:56.802425</t>
         </is>
       </c>
     </row>
@@ -12092,16 +12144,16 @@
         <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12115,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -12125,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -12165,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.963010</t>
+          <t>2025-10-19T23:54:56.802425</t>
         </is>
       </c>
     </row>
@@ -12182,16 +12234,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G130" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12205,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -12215,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -12255,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.964008</t>
+          <t>2025-10-19T23:54:56.802425</t>
         </is>
       </c>
     </row>
@@ -12272,16 +12324,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G131" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12295,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -12305,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12345,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.964008</t>
+          <t>2025-10-19T23:54:56.802425</t>
         </is>
       </c>
     </row>
@@ -12362,16 +12414,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G132" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12385,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -12395,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12429,13 +12481,17 @@
         <v>1.039621591567993</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
-      </c>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.5416145155592091</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>419</v>
+      </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.964008</t>
+          <t>2025-10-19T23:54:56.803424</t>
         </is>
       </c>
     </row>
@@ -12458,10 +12514,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G133" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12475,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12519,17 +12575,13 @@
         <v>1.050357937812805</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.4579502905827536</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.964008</t>
+          <t>2025-10-19T23:54:56.803424</t>
         </is>
       </c>
     </row>
@@ -12546,16 +12598,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G134" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12569,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -12579,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12619,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.964008</t>
+          <t>2025-10-19T23:54:56.803424</t>
         </is>
       </c>
     </row>
@@ -12642,10 +12694,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -12659,7 +12711,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K135" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L135" t="n">
         <v>0.8631205685666311</v>
@@ -12669,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12709,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.965007</t>
+          <t>2025-10-19T23:54:56.803424</t>
         </is>
       </c>
     </row>
@@ -12732,10 +12784,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G136" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -12749,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12793,17 +12845,17 @@
         <v>1.108962774276733</v>
       </c>
       <c r="W136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X136" t="n">
-        <v>0.4455870325083883</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y136" t="n">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.965007</t>
+          <t>2025-10-19T23:54:56.803424</t>
         </is>
       </c>
     </row>
@@ -12820,16 +12872,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -12843,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12853,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12893,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.965007</t>
+          <t>2025-10-19T23:54:56.804421</t>
         </is>
       </c>
     </row>
@@ -12916,10 +12968,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -12933,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -12977,17 +13029,13 @@
         <v>0.9361498951911926</v>
       </c>
       <c r="W138" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" t="n">
-        <v>0.4127116700572048</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.965007</t>
+          <t>2025-10-19T23:54:56.804421</t>
         </is>
       </c>
     </row>
@@ -13004,16 +13052,16 @@
         <v>1</v>
       </c>
       <c r="D139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G139" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -13027,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -13037,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="O139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -13077,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.965007</t>
+          <t>2025-10-19T23:54:56.805423</t>
         </is>
       </c>
     </row>
@@ -13094,16 +13142,16 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -13117,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -13127,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -13161,13 +13209,17 @@
         <v>0.8225494027137756</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.5197316968394073</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>65</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.966005</t>
+          <t>2025-10-19T23:54:56.805423</t>
         </is>
       </c>
     </row>
@@ -13190,10 +13242,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -13207,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13251,17 +13303,13 @@
         <v>1.085249304771423</v>
       </c>
       <c r="W141" t="n">
-        <v>2</v>
-      </c>
-      <c r="X141" t="n">
-        <v>0.5275114942710426</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.966005</t>
+          <t>2025-10-19T23:54:56.806702</t>
         </is>
       </c>
     </row>
@@ -13284,10 +13332,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -13301,7 +13349,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13351,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.966005</t>
+          <t>2025-10-19T23:54:56.806702</t>
         </is>
       </c>
     </row>
@@ -13374,10 +13422,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -13391,7 +13439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13441,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.966005</t>
+          <t>2025-10-19T23:54:56.807247</t>
         </is>
       </c>
     </row>
@@ -13458,16 +13506,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G144" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -13481,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -13491,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13531,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.966005</t>
+          <t>2025-10-19T23:54:56.807563</t>
         </is>
       </c>
     </row>
@@ -13554,10 +13602,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -13571,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13615,17 +13663,13 @@
         <v>1.089768409729004</v>
       </c>
       <c r="W145" t="n">
-        <v>2</v>
-      </c>
-      <c r="X145" t="n">
-        <v>0.5454543991712841</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.967004</t>
+          <t>2025-10-19T23:54:56.807563</t>
         </is>
       </c>
     </row>
@@ -13642,16 +13686,16 @@
         <v>1</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G146" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -13665,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -13675,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13715,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.967004</t>
+          <t>2025-10-19T23:54:56.808100</t>
         </is>
       </c>
     </row>
@@ -13738,10 +13782,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G147" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -13755,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13799,17 +13843,13 @@
         <v>0.9569106101989746</v>
       </c>
       <c r="W147" t="n">
-        <v>1</v>
-      </c>
-      <c r="X147" t="n">
-        <v>0.542648957444599</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.967004</t>
+          <t>2025-10-19T23:54:56.808352</t>
         </is>
       </c>
     </row>
@@ -13826,16 +13866,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G148" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -13849,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13859,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13893,13 +13933,17 @@
         <v>0.9605692625045776</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.5005358046457723</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>109</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.967004</t>
+          <t>2025-10-19T23:54:56.808863</t>
         </is>
       </c>
     </row>
@@ -13916,16 +13960,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -13939,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -13949,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -13989,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.808881</t>
         </is>
       </c>
     </row>
@@ -14006,16 +14050,16 @@
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G150" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -14029,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -14039,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -14079,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.808881</t>
         </is>
       </c>
     </row>
@@ -14102,10 +14146,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -14119,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14169,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.808881</t>
         </is>
       </c>
     </row>
@@ -14192,10 +14236,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -14209,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14253,17 +14297,13 @@
         <v>0.994684636592865</v>
       </c>
       <c r="W152" t="n">
-        <v>4</v>
-      </c>
-      <c r="X152" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.808881</t>
         </is>
       </c>
     </row>
@@ -14280,16 +14320,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G153" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -14303,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -14313,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -14353,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.809880</t>
         </is>
       </c>
     </row>
@@ -14376,10 +14416,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G154" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -14393,7 +14433,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K154" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L154" t="n">
         <v>0.9852281360342515</v>
@@ -14403,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14443,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.809880</t>
         </is>
       </c>
     </row>
@@ -14466,10 +14506,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G155" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -14483,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14527,17 +14567,13 @@
         <v>1.051369786262512</v>
       </c>
       <c r="W155" t="n">
-        <v>2</v>
-      </c>
-      <c r="X155" t="n">
-        <v>0.4777354579378964</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.809880</t>
         </is>
       </c>
     </row>
@@ -14554,16 +14590,16 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -14577,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -14587,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14627,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.809880</t>
         </is>
       </c>
     </row>
@@ -14644,16 +14680,16 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G157" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -14667,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -14677,7 +14713,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14711,13 +14747,17 @@
         <v>0.9362792372703552</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
-      </c>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>333</v>
+      </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.810881</t>
         </is>
       </c>
     </row>
@@ -14734,16 +14774,16 @@
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G158" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -14757,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -14767,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14807,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.810881</t>
         </is>
       </c>
     </row>
@@ -14824,16 +14864,16 @@
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G159" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -14847,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -14857,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14897,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.810881</t>
         </is>
       </c>
     </row>
@@ -14920,10 +14960,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -14937,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -14981,13 +15021,17 @@
         <v>1.046213746070862</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
-      </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0.4281848449949526</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>246</v>
+      </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.810881</t>
         </is>
       </c>
     </row>
@@ -15010,10 +15054,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -15027,7 +15071,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L161" t="n">
         <v>0.5916727785823274</v>
@@ -15037,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -15077,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.811881</t>
         </is>
       </c>
     </row>
@@ -15094,16 +15138,16 @@
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -15117,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -15127,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -15167,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.811881</t>
         </is>
       </c>
     </row>
@@ -15190,10 +15234,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -15207,7 +15251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15257,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.811881</t>
         </is>
       </c>
     </row>
@@ -15274,16 +15318,16 @@
         <v>1</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -15297,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -15307,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="O164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -15347,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.811881</t>
         </is>
       </c>
     </row>
@@ -15370,10 +15414,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -15387,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15437,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.812880</t>
         </is>
       </c>
     </row>
@@ -15460,10 +15504,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G166" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -15477,7 +15521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15527,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.812880</t>
         </is>
       </c>
     </row>
@@ -15550,10 +15594,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -15567,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15611,17 +15655,17 @@
         <v>0.9564534425735474</v>
       </c>
       <c r="W167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X167" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.4244175909401347</v>
       </c>
       <c r="Y167" t="n">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.812880</t>
         </is>
       </c>
     </row>
@@ -15638,16 +15682,16 @@
         <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G168" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -15661,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -15671,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="O168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -15705,13 +15749,17 @@
         <v>0.9103351235389709</v>
       </c>
       <c r="W168" t="n">
-        <v>0</v>
-      </c>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0.5295380241082724</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>165</v>
+      </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.812880</t>
         </is>
       </c>
     </row>
@@ -15734,10 +15782,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -15751,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15795,17 +15843,17 @@
         <v>0.9613555073738098</v>
       </c>
       <c r="W169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X169" t="n">
-        <v>0.5785117996979956</v>
+        <v>0.4601756619633539</v>
       </c>
       <c r="Y169" t="n">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.813881</t>
         </is>
       </c>
     </row>
@@ -15822,16 +15870,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G170" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -15845,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -15855,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15889,13 +15937,17 @@
         <v>0.8839027285575867</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5443459042329746</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>281</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.813881</t>
         </is>
       </c>
     </row>
@@ -15918,10 +15970,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G171" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -15935,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -15979,17 +16031,17 @@
         <v>0.975191056728363</v>
       </c>
       <c r="W171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.5266807513020847</v>
+        <v>0.4850311748982489</v>
       </c>
       <c r="Y171" t="n">
         <v>189</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:23.968471</t>
+          <t>2025-10-19T23:54:56.813881</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -651,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.772052</t>
+          <t>2025-10-20T01:21:24.792586</t>
         </is>
       </c>
     </row>
@@ -741,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.772052</t>
+          <t>2025-10-20T01:21:24.792586</t>
         </is>
       </c>
     </row>
@@ -831,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.772052</t>
+          <t>2025-10-20T01:21:24.792586</t>
         </is>
       </c>
     </row>
@@ -925,7 +935,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.772052</t>
+          <t>2025-10-20T01:21:24.792586</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.792586</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.773050</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1569,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.774049</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.774049</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.774049</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.774049</t>
+          <t>2025-10-20T01:21:24.793584</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775048</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775048</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775367</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775367</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775914</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2383,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775914</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2477,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775914</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.775914</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.776895</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.776895</t>
+          <t>2025-10-20T01:21:24.794583</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2841,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.776895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.776895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.776895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.777895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3205,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.777895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3299,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.777895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.777895</t>
+          <t>2025-10-20T01:21:24.795583</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.778895</t>
+          <t>2025-10-20T01:21:24.796583</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.778895</t>
+          <t>2025-10-20T01:21:24.796583</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.778895</t>
+          <t>2025-10-20T01:21:24.796583</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.778895</t>
+          <t>2025-10-20T01:21:24.796583</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.778895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3933,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.779895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4027,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.779895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.779895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.779895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.779895</t>
+          <t>2025-10-20T01:21:24.797583</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.781897</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4481,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.781897</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4665,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4849,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4943,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.798580</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.782898</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5127,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.783894</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5221,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.783894</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.783894</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.783894</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.783894</t>
+          <t>2025-10-20T01:21:24.799577</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5675,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.784895</t>
+          <t>2025-10-20T01:21:24.800582</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6219,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6313,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6497,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6591,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.785894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6685,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.786894</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6779,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.801579</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.802577</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.802577</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.802577</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.787427</t>
+          <t>2025-10-20T01:21:24.804583</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.788419</t>
+          <t>2025-10-20T01:21:24.804583</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7413,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.788419</t>
+          <t>2025-10-20T01:21:24.804583</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.788419</t>
+          <t>2025-10-20T01:21:24.805581</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.789420</t>
+          <t>2025-10-20T01:21:24.805581</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7687,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.789420</t>
+          <t>2025-10-20T01:21:24.805581</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.789420</t>
+          <t>2025-10-20T01:21:24.805581</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7871,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.789420</t>
+          <t>2025-10-20T01:21:24.805581</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.789420</t>
+          <t>2025-10-20T01:21:24.806583</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.790419</t>
+          <t>2025-10-20T01:21:24.806583</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8145,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.790419</t>
+          <t>2025-10-20T01:21:24.806583</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.790419</t>
+          <t>2025-10-20T01:21:24.806583</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.790419</t>
+          <t>2025-10-20T01:21:24.807585</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.791419</t>
+          <t>2025-10-20T01:21:24.807585</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.791419</t>
+          <t>2025-10-20T01:21:24.807585</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.791419</t>
+          <t>2025-10-20T01:21:24.807585</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.791419</t>
+          <t>2025-10-20T01:21:24.808588</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.791419</t>
+          <t>2025-10-20T01:21:24.809583</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.792420</t>
+          <t>2025-10-20T01:21:24.809583</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.792420</t>
+          <t>2025-10-20T01:21:24.809583</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.792420</t>
+          <t>2025-10-20T01:21:24.809583</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.792420</t>
+          <t>2025-10-20T01:21:24.810582</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9233,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.792420</t>
+          <t>2025-10-20T01:21:24.810582</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.793420</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.793420</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.793420</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9597,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.793420</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.794422</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.794422</t>
+          <t>2025-10-20T01:21:24.811584</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.794422</t>
+          <t>2025-10-20T01:21:24.812584</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.794422</t>
+          <t>2025-10-20T01:21:24.812584</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.794422</t>
+          <t>2025-10-20T01:21:24.812584</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10141,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.795421</t>
+          <t>2025-10-20T01:21:24.812584</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10235,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.795421</t>
+          <t>2025-10-20T01:21:24.812584</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.795421</t>
+          <t>2025-10-20T01:21:24.813584</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10419,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.795421</t>
+          <t>2025-10-20T01:21:24.813584</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.795421</t>
+          <t>2025-10-20T01:21:24.813584</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.796423</t>
+          <t>2025-10-20T01:21:24.813584</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.796423</t>
+          <t>2025-10-20T01:21:24.813584</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.796423</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.796423</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.797420</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.797420</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.797420</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11233,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.798423</t>
+          <t>2025-10-20T01:21:24.814582</t>
         </is>
       </c>
     </row>
@@ -11313,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.799425</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11417,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.800426</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.800426</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.800426</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.800426</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.801424</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.801424</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -11947,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.801424</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.801424</t>
+          <t>2025-10-20T01:21:24.815580</t>
         </is>
       </c>
     </row>
@@ -12127,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.802425</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.802425</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.802425</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.802425</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12501,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.803424</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.803424</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.803424</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.803424</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12865,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.803424</t>
+          <t>2025-10-20T01:21:24.816577</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.804421</t>
+          <t>2025-10-20T01:21:24.817635</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.804421</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.805423</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13229,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.805423</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.806702</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.806702</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.807247</t>
+          <t>2025-10-20T01:21:24.817749</t>
         </is>
       </c>
     </row>
@@ -13579,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.807563</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.807563</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808100</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808352</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13953,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808863</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808881</t>
+          <t>2025-10-20T01:21:24.818757</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808881</t>
+          <t>2025-10-20T01:21:24.819749</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808881</t>
+          <t>2025-10-20T01:21:24.820766</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.808881</t>
+          <t>2025-10-20T01:21:24.820766</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.809880</t>
+          <t>2025-10-20T01:21:24.820766</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.809880</t>
+          <t>2025-10-20T01:21:24.820766</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.809880</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -14663,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.809880</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -14757,7 +14767,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.810881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.810881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.810881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15041,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.810881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.811881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.811881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.811881</t>
+          <t>2025-10-20T01:21:24.821753</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.811881</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.812880</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15571,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.812880</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15675,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.812880</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15769,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.812880</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15863,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.813881</t>
+          <t>2025-10-20T01:21:24.822750</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15957,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.813881</t>
+          <t>2025-10-20T01:21:24.823749</t>
         </is>
       </c>
     </row>
@@ -16041,11 +16051,16 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:56.813881</t>
+          <t>2025-10-20T01:21:24.823749</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z171">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.792586</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.792586</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.792586</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -928,14 +928,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4329311706285884</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y5" t="n">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.792586</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.792586</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1562,14 +1562,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4346729307015544</v>
+        <v>0.4068777042230437</v>
       </c>
       <c r="Y12" t="n">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.793584</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2376,14 +2376,14 @@
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5843748470046234</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y21" t="n">
         <v>395</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2470,14 +2470,14 @@
         <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4221781641623663</v>
       </c>
       <c r="Y22" t="n">
-        <v>68</v>
+        <v>414</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.794583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2834,14 +2834,14 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.5897771074506666</v>
       </c>
       <c r="Y26" t="n">
         <v>404</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3198,14 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4608484485919075</v>
+        <v>0.5234963019255433</v>
       </c>
       <c r="Y30" t="n">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3292,14 +3292,14 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4863890037284231</v>
+        <v>0.4014132610439435</v>
       </c>
       <c r="Y31" t="n">
         <v>52</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.795583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.796583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.796583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.796583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.796583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -3926,14 +3926,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.5607344153798228</v>
       </c>
       <c r="Y38" t="n">
         <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4020,14 +4020,14 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.4457596330983245</v>
       </c>
       <c r="Y39" t="n">
         <v>300</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.797583</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4474,14 +4474,14 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.5211919949562023</v>
       </c>
       <c r="Y44" t="n">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4658,14 +4658,14 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>0.476585374950758</v>
+        <v>0.4944429850323899</v>
       </c>
       <c r="Y46" t="n">
         <v>148</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4842,14 +4842,14 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.5182595575415454</v>
+        <v>0.5459212356676129</v>
       </c>
       <c r="Y48" t="n">
-        <v>411</v>
+        <v>245</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -4936,14 +4936,14 @@
         <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>0.4363649934414202</v>
+        <v>0.4001557531682029</v>
       </c>
       <c r="Y49" t="n">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.798580</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5120,14 +5120,14 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y51" t="n">
         <v>10</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5214,14 +5214,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.5829919351087561</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.799577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5668,14 +5668,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4790300472003629</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y57" t="n">
         <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.800582</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6212,14 +6212,14 @@
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>0.4621964643431324</v>
+        <v>0.4741636504396533</v>
       </c>
       <c r="Y63" t="n">
-        <v>226</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6306,14 +6306,14 @@
         <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5223705789444759</v>
+        <v>0.5049549320516779</v>
       </c>
       <c r="Y64" t="n">
         <v>300</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6490,14 +6490,14 @@
         <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>0.4341048247374583</v>
+        <v>0.5360615077175559</v>
       </c>
       <c r="Y66" t="n">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6584,14 +6584,14 @@
         <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>0.4503564591650728</v>
+        <v>0.4493752125677202</v>
       </c>
       <c r="Y67" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6678,14 +6678,14 @@
         <v>1</v>
       </c>
       <c r="X68" t="n">
-        <v>0.544399754453365</v>
+        <v>0.5939819704323989</v>
       </c>
       <c r="Y68" t="n">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6772,14 +6772,14 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5093420558686559</v>
       </c>
       <c r="Y69" t="n">
         <v>307</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.801579</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.802577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.802577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.802577</t>
+          <t>2025-10-23T11:29:07.196355</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.804583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.804583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7406,14 +7406,14 @@
         <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4437528439146141</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.804583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.805581</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.805581</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7680,14 +7680,14 @@
         <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>0.538487206578054</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y79" t="n">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.805581</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.805581</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7864,14 +7864,14 @@
         <v>2</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5272820822527561</v>
+        <v>0.5791527191347039</v>
       </c>
       <c r="Y81" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.805581</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.806583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.806583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8138,14 +8138,14 @@
         <v>1</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4092900825439996</v>
+        <v>0.493352578649596</v>
       </c>
       <c r="Y84" t="n">
         <v>404</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.806583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.806583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.807585</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.807585</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.807585</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.807585</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.808588</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.809583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.809583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.809583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.809583</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9132,14 +9132,14 @@
         <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4579502905827536</v>
       </c>
       <c r="Y95" t="n">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.810582</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9226,14 +9226,14 @@
         <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4898901348276407</v>
       </c>
       <c r="Y96" t="n">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.810582</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9590,14 +9590,14 @@
         <v>1</v>
       </c>
       <c r="X100" t="n">
-        <v>0.573235229154987</v>
+        <v>0.4918497783931735</v>
       </c>
       <c r="Y100" t="n">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.811584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.812584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.812584</t>
+          <t>2025-10-23T11:29:07.208874</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.812584</t>
+          <t>2025-10-23T11:29:07.213039</t>
         </is>
       </c>
     </row>
@@ -10134,14 +10134,14 @@
         <v>1</v>
       </c>
       <c r="X106" t="n">
-        <v>0.4364472175576125</v>
+        <v>0.4517559963200034</v>
       </c>
       <c r="Y106" t="n">
         <v>338</v>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.812584</t>
+          <t>2025-10-23T11:29:07.213039</t>
         </is>
       </c>
     </row>
@@ -10228,14 +10228,14 @@
         <v>1</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y107" t="n">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.812584</t>
+          <t>2025-10-23T11:29:07.213039</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.813584</t>
+          <t>2025-10-23T11:29:07.213039</t>
         </is>
       </c>
     </row>
@@ -10412,14 +10412,14 @@
         <v>1</v>
       </c>
       <c r="X109" t="n">
-        <v>0.5766560517837737</v>
+        <v>0.5785117996979956</v>
       </c>
       <c r="Y109" t="n">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.813584</t>
+          <t>2025-10-23T11:29:07.213039</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.813584</t>
+          <t>2025-10-23T11:29:07.214058</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.813584</t>
+          <t>2025-10-23T11:29:07.214058</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.813584</t>
+          <t>2025-10-23T11:29:07.214058</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.214058</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.215059</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.215059</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.215059</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11226,14 +11226,14 @@
         <v>1</v>
       </c>
       <c r="X118" t="n">
-        <v>0.4461787651244298</v>
+        <v>0.4195344228012768</v>
       </c>
       <c r="Y118" t="n">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.814582</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11410,14 +11410,14 @@
         <v>1</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5366527037650917</v>
+        <v>0.4880304987479203</v>
       </c>
       <c r="Y120" t="n">
         <v>176</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.216060</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.815580</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.217052</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12494,14 +12494,14 @@
         <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.5416145155592091</v>
+        <v>0.4285733635843882</v>
       </c>
       <c r="Y132" t="n">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12858,14 +12858,14 @@
         <v>3</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4080867179076863</v>
       </c>
       <c r="Y136" t="n">
         <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.816577</t>
+          <t>2025-10-23T11:29:07.218050</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817635</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13222,14 +13222,14 @@
         <v>1</v>
       </c>
       <c r="X140" t="n">
-        <v>0.5197316968394073</v>
+        <v>0.5559382000545539</v>
       </c>
       <c r="Y140" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.817749</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.219050</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -13946,14 +13946,14 @@
         <v>3</v>
       </c>
       <c r="X148" t="n">
-        <v>0.5005358046457723</v>
+        <v>0.5953229911665305</v>
       </c>
       <c r="Y148" t="n">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.818757</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.819749</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.820766</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.820766</t>
+          <t>2025-10-23T11:29:07.220050</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.820766</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.820766</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14760,14 +14760,14 @@
         <v>1</v>
       </c>
       <c r="X157" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.5636029531844986</v>
       </c>
       <c r="Y157" t="n">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.221051</t>
         </is>
       </c>
     </row>
@@ -15034,14 +15034,14 @@
         <v>1</v>
       </c>
       <c r="X160" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4551998364045087</v>
       </c>
       <c r="Y160" t="n">
         <v>246</v>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.821753</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15668,14 +15668,14 @@
         <v>1</v>
       </c>
       <c r="X167" t="n">
-        <v>0.4244175909401347</v>
+        <v>0.5614880310328125</v>
       </c>
       <c r="Y167" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.222050</t>
         </is>
       </c>
     </row>
@@ -15762,14 +15762,14 @@
         <v>1</v>
       </c>
       <c r="X168" t="n">
-        <v>0.5295380241082724</v>
+        <v>0.4455870325083883</v>
       </c>
       <c r="Y168" t="n">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.223050</t>
         </is>
       </c>
     </row>
@@ -15856,14 +15856,14 @@
         <v>1</v>
       </c>
       <c r="X169" t="n">
-        <v>0.4601756619633539</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y169" t="n">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.822750</t>
+          <t>2025-10-23T11:29:07.223050</t>
         </is>
       </c>
     </row>
@@ -15950,14 +15950,14 @@
         <v>1</v>
       </c>
       <c r="X170" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.5521570097233794</v>
       </c>
       <c r="Y170" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.823749</t>
+          <t>2025-10-23T11:29:07.223050</t>
         </is>
       </c>
     </row>
@@ -16044,14 +16044,14 @@
         <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.4850311748982489</v>
+        <v>0.4623422152178822</v>
       </c>
       <c r="Y171" t="n">
         <v>189</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:24.823749</t>
+          <t>2025-10-23T11:29:07.223050</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.196355</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.208874</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.213039</t>
+          <t>2025-10-23T12:45:08.526177</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.213039</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.213039</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.213039</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.213039</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.214058</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.214058</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.214058</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.214058</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.215059</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.215059</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.215059</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.216060</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.217052</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.218050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.541828</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.548761</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.549760</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.549760</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.219050</t>
+          <t>2025-10-23T12:45:08.549760</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.549760</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.550759</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.550759</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.550759</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.550759</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.550759</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.551757</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.220050</t>
+          <t>2025-10-23T12:45:08.551757</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.551757</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.551757</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.552755</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.552755</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.552755</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.552755</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.221051</t>
+          <t>2025-10-23T12:45:08.552755</t>
         </is>
       </c>
     </row>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.553754</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.553754</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.553754</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.553754</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.553754</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.554753</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.554753</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.222050</t>
+          <t>2025-10-23T12:45:08.554753</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.223050</t>
+          <t>2025-10-23T12:45:08.554753</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.223050</t>
+          <t>2025-10-23T12:45:08.554753</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.223050</t>
+          <t>2025-10-23T12:45:08.555753</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:07.223050</t>
+          <t>2025-10-23T12:45:08.555753</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>2.157114712469289</v>
+        <v>2.157114744186401</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.356267</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -738,20 +738,16 @@
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>4.360157667336493</v>
+        <v>4.360157489776611</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.5122554395138993</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.356267</t>
         </is>
       </c>
     </row>
@@ -768,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -789,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -799,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -830,20 +826,16 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>2.955834654327462</v>
+        <v>2.955834627151489</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5040136042355622</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.356267</t>
         </is>
       </c>
     </row>
@@ -881,7 +873,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0.8631205685666311</v>
@@ -891,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -922,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>2.330784449996127</v>
+        <v>2.330784559249878</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -931,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.356267</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>2.168516787431688</v>
+        <v>2.168516874313354</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1019,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>3.208828049867004</v>
+        <v>3.208827972412109</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1107,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>3.485902186428175</v>
+        <v>3.485902070999146</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1195,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1274,16 +1266,20 @@
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>3.613182932572864</v>
+        <v>3.61318302154541</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5930838702577588</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>344</v>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1321,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1331,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1362,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>3.507693554193324</v>
+        <v>3.507693529129028</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1371,7 +1367,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>2.092917205528976</v>
+        <v>2.092917203903198</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1459,7 +1455,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1497,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1507,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1538,16 +1534,20 @@
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>2.795801308264188</v>
+        <v>2.795801401138306</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.4978905520555126</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>300</v>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>3.477397964044639</v>
+        <v>3.477397918701172</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1714,16 +1714,20 @@
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.675995978211259</v>
+        <v>2.675996065139771</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4616121583704779</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>260</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1765,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
         <v>0.9852281360342515</v>
@@ -1771,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1802,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>3.116759459666232</v>
+        <v>3.116759538650513</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1811,7 +1815,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.357268</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1853,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L16" t="n">
         <v>0.5916727785823274</v>
@@ -1859,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1890,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>2.502524245961173</v>
+        <v>2.502524137496948</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1899,7 +1903,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1937,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1947,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1978,20 +1982,16 @@
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.959227587738293</v>
+        <v>1.959227561950684</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5607344153798228</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>3.435223328328265</v>
+        <v>3.435223340988159</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2158,20 +2158,20 @@
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.774998049667791</v>
+        <v>1.774998068809509</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4990353820222541</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y19" t="n">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.947857582161779</v>
+        <v>1.947857618331909</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2338,20 +2338,20 @@
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>2.131900466592375</v>
+        <v>2.131900548934937</v>
       </c>
       <c r="W21" t="n">
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4028159645430169</v>
+        <v>0.576527268637868</v>
       </c>
       <c r="Y21" t="n">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2430,20 +2430,16 @@
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>5.625724915311262</v>
+        <v>5.625724792480469</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.478976303635114</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>2.409832158239197</v>
+        <v>2.409832239151001</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2531,7 +2527,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>2.232717365990434</v>
+        <v>2.232717275619507</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2619,7 +2615,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.358266</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2657,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2667,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2698,20 +2694,16 @@
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>3.871425210290716</v>
+        <v>3.871425151824951</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.5853317731587588</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.359268</t>
         </is>
       </c>
     </row>
@@ -2790,20 +2782,20 @@
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.185838231633765</v>
+        <v>2.185838222503662</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.5071549368149517</v>
       </c>
       <c r="Y26" t="n">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.360271</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2841,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2851,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2882,16 +2874,20 @@
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.163112610938815</v>
+        <v>2.163112640380859</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>115</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.360271</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2929,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2939,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2970,16 +2966,20 @@
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>2.152631958428961</v>
+        <v>2.152631998062134</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.4028159645430169</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>115</v>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3058,20 +3058,20 @@
         <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>3.862919959289532</v>
+        <v>3.862920045852661</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4190820232980823</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y29" t="n">
         <v>66</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3150,20 +3150,16 @@
         <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>3.249591361545142</v>
+        <v>3.24959135055542</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.4062858371373469</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3197,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>0.8631205685666311</v>
@@ -3211,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3242,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>2.080991675122395</v>
+        <v>2.080991744995117</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3251,7 +3247,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3330,20 +3326,20 @@
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>4.371753468981833</v>
+        <v>4.371753692626953</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3422,20 +3418,20 @@
         <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>3.082636591227818</v>
+        <v>3.082636594772339</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4190820232980823</v>
       </c>
       <c r="Y33" t="n">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>4.240592642697917</v>
+        <v>4.240592479705811</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3523,7 +3519,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3561,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3571,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3602,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>3.172193990367615</v>
+        <v>3.172194004058838</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3611,7 +3607,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.361276</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>2.163736036444024</v>
+        <v>2.16373610496521</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3699,7 +3695,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3737,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3747,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3778,20 +3774,16 @@
         <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>2.955834654327462</v>
+        <v>2.955834627151489</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.4912139968434072</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -3870,16 +3862,20 @@
         <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>3.631736940705085</v>
+        <v>3.631736993789673</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4357645418442658</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>25</v>
+      </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -3958,20 +3954,20 @@
         <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>3.739009136579542</v>
+        <v>3.739009141921997</v>
       </c>
       <c r="W39" t="n">
         <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y39" t="n">
         <v>4</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>3.200406144117444</v>
+        <v>3.200406074523926</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -4059,7 +4055,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4134,7 @@
         <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>4.38733829732847</v>
+        <v>4.387338161468506</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4147,7 +4143,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4185,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4195,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4226,16 +4222,20 @@
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>4.447107150571818</v>
+        <v>4.447107315063477</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5964336686658871</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>149</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>1.816329724740481</v>
+        <v>1.816329717636108</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4402,16 +4402,20 @@
         <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>3.117799168283223</v>
+        <v>3.117799282073975</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4364472175576125</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>401</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -4449,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4459,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4490,7 +4494,7 @@
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>3.45290128923959</v>
+        <v>3.452901363372803</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4499,7 +4503,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4537,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4547,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4578,16 +4582,20 @@
         <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>3.200801099399567</v>
+        <v>3.200801134109497</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.5693322284476612</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>100</v>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.362271</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>2.617141313287657</v>
+        <v>2.617141246795654</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4675,7 +4683,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4721,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L48" t="n">
         <v>0.9852281360342515</v>
@@ -4723,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4754,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>3.97149479184511</v>
+        <v>3.971494674682617</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4763,7 +4771,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>2.4699116158985</v>
+        <v>2.469911575317383</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4851,7 +4859,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>3.846607293762169</v>
+        <v>3.846607208251953</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4939,7 +4947,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>4.763889284322343</v>
+        <v>4.763889312744141</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -5027,7 +5035,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>2.634864256690292</v>
+        <v>2.634864330291748</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5115,7 +5123,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5132,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -5153,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5163,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5194,20 +5202,16 @@
         <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>3.136862859586551</v>
+        <v>3.136862754821777</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.4880304987479203</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5245,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5255,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5286,16 +5290,20 @@
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>5.321010997477671</v>
+        <v>5.321011066436768</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.480901625424438</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>124</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -5333,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5343,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5374,20 +5382,16 @@
         <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>3.118543439916383</v>
+        <v>3.118543386459351</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.4608484485919075</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5466,20 +5470,20 @@
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>4.284815730402634</v>
+        <v>4.284815788269043</v>
       </c>
       <c r="W56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>0.5859395304685147</v>
+        <v>0.4130103185970559</v>
       </c>
       <c r="Y56" t="n">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.363269</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -5517,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5527,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5558,20 +5562,16 @@
         <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>3.180856101001477</v>
+        <v>3.180855989456177</v>
       </c>
       <c r="W57" t="n">
-        <v>2</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.4820765846071259</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>3.081727993239573</v>
+        <v>3.081727981567383</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>2.182917891233416</v>
+        <v>2.182917833328247</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5747,7 +5747,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L60" t="n">
         <v>0.5916727785823274</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>2.466278577465952</v>
+        <v>2.466278553009033</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5835,7 +5835,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -5914,20 +5914,16 @@
         <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.778759816676212</v>
+        <v>2.778759717941284</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.5126576435691078</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5965,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -5975,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -6006,20 +6002,16 @@
         <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>3.886372153005643</v>
+        <v>3.886372089385986</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.4561869019374762</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6098,20 +6090,20 @@
         <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>2.520403381336186</v>
+        <v>2.520403385162354</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X63" t="n">
-        <v>0.4944429850323899</v>
+        <v>0.4500923637211168</v>
       </c>
       <c r="Y63" t="n">
         <v>267</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.909124</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -6149,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6159,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -6190,20 +6182,16 @@
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>2.598210830573817</v>
+        <v>2.59821081161499</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0.5700077155579598</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="V65" t="n">
-        <v>3.422209701542705</v>
+        <v>3.422209739685059</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6291,7 +6279,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6370,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>2.806350512499308</v>
+        <v>2.806350469589233</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6379,7 +6367,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -6417,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6427,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6458,16 +6446,20 @@
         <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>2.920504488280142</v>
+        <v>2.920504570007324</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.5264611661187159</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>124</v>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.364268</t>
         </is>
       </c>
     </row>
@@ -6546,16 +6538,20 @@
         <v>4</v>
       </c>
       <c r="V68" t="n">
-        <v>3.515434293872683</v>
+        <v>3.515434265136719</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.4567841949474932</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>162</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -6634,20 +6630,20 @@
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>3.498482511434422</v>
+        <v>3.498482465744019</v>
       </c>
       <c r="W69" t="n">
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4653081537611671</v>
+        <v>0.487867300373154</v>
       </c>
       <c r="Y69" t="n">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6722,7 @@
         <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>2.700428052808665</v>
+        <v>2.700428009033203</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6735,7 +6731,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6769,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L71" t="n">
         <v>0.8631205685666311</v>
@@ -6783,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -6814,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>3.61762473839725</v>
+        <v>3.617624759674072</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6823,7 +6819,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6857,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L72" t="n">
         <v>0.5916727785823274</v>
@@ -6871,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -6902,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>2.298265723805504</v>
+        <v>2.298265695571899</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6911,7 +6907,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="V73" t="n">
-        <v>4.371141530611843</v>
+        <v>4.37114143371582</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -6999,7 +6995,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>3.649215451930979</v>
+        <v>3.649215459823608</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -7087,7 +7083,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>3.38901956407039</v>
+        <v>3.38901948928833</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7175,7 +7171,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="V76" t="n">
-        <v>3.055382846999021</v>
+        <v>3.05538272857666</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -7263,7 +7259,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.921391</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>3.477397964044639</v>
+        <v>3.477397918701172</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7351,7 +7347,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7385,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>0.9852281360342515</v>
@@ -7399,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -7430,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="V78" t="n">
-        <v>3.390831725678837</v>
+        <v>3.390831708908081</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7439,7 +7435,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.365269</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -7477,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7487,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7518,20 +7514,16 @@
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>2.528296266090024</v>
+        <v>2.528296232223511</v>
       </c>
       <c r="W79" t="n">
-        <v>2</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0.4579502905827536</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -7548,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -7569,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7579,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="O80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -7610,7 +7602,7 @@
         <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>2.614056892639822</v>
+        <v>2.614056825637817</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
@@ -7619,7 +7611,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -7698,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>4.490177666902133</v>
+        <v>4.490177631378174</v>
       </c>
       <c r="W81" t="n">
         <v>0</v>
@@ -7707,7 +7699,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7745,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -7755,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="O82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -7786,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="V82" t="n">
-        <v>3.654120974688201</v>
+        <v>3.654120922088623</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -7795,7 +7787,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -7874,20 +7866,20 @@
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>4.631079724433871</v>
+        <v>4.63107967376709</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>0.5275114942710426</v>
+        <v>0.5421325779371575</v>
       </c>
       <c r="Y83" t="n">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -7904,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7925,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -7935,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="O84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -7966,16 +7958,20 @@
         <v>4</v>
       </c>
       <c r="V84" t="n">
-        <v>5.10365950990722</v>
+        <v>5.103659629821777</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4373140117772072</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>160</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -8054,20 +8050,20 @@
         <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>3.427791132008736</v>
+        <v>3.427791118621826</v>
       </c>
       <c r="W85" t="n">
         <v>2</v>
       </c>
       <c r="X85" t="n">
-        <v>0.5325044568707964</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y85" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="V86" t="n">
-        <v>1.889388633827739</v>
+        <v>1.889388680458069</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8155,7 +8151,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8230,7 @@
         <v>4</v>
       </c>
       <c r="V87" t="n">
-        <v>2.716722982404087</v>
+        <v>2.716722965240479</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8243,7 +8239,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -8322,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="V88" t="n">
-        <v>2.393057688705174</v>
+        <v>2.393057584762573</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8331,7 +8327,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.366269</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -8369,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8379,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8410,16 +8406,20 @@
         <v>4</v>
       </c>
       <c r="V89" t="n">
-        <v>2.11119001503217</v>
+        <v>2.1111900806427</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.5957785716550018</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>362</v>
+      </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>4</v>
       </c>
       <c r="V90" t="n">
-        <v>3.077072505807046</v>
+        <v>3.077072620391846</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -8507,7 +8507,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8586,20 +8586,20 @@
         <v>4</v>
       </c>
       <c r="V91" t="n">
-        <v>2.247038057270672</v>
+        <v>2.247038125991821</v>
       </c>
       <c r="W91" t="n">
         <v>2</v>
       </c>
       <c r="X91" t="n">
-        <v>0.542648957444599</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y91" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>5.271964131558878</v>
+        <v>5.271964073181152</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8766,16 +8766,20 @@
         <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>3.539912713262446</v>
+        <v>3.539912700653076</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.5701856897535025</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>9</v>
+      </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8854,20 +8858,16 @@
         <v>4</v>
       </c>
       <c r="V94" t="n">
-        <v>3.050092201715358</v>
+        <v>3.050092220306396</v>
       </c>
       <c r="W94" t="n">
-        <v>3</v>
-      </c>
-      <c r="X94" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -8946,16 +8946,20 @@
         <v>4</v>
       </c>
       <c r="V95" t="n">
-        <v>2.195721571199591</v>
+        <v>2.195721626281738</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.5988914925221641</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>48</v>
+      </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -9034,20 +9038,20 @@
         <v>4</v>
       </c>
       <c r="V96" t="n">
-        <v>3.631736940705085</v>
+        <v>3.631736993789673</v>
       </c>
       <c r="W96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.4036150727231042</v>
       </c>
       <c r="Y96" t="n">
         <v>123</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9130,7 @@
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>2.393057688705174</v>
+        <v>2.393057584762573</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -9135,7 +9139,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -9173,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -9183,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9214,16 +9218,20 @@
         <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>3.055050099113476</v>
+        <v>3.055050134658813</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
-      </c>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.5182595575415454</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>232</v>
+      </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -9261,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9271,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -9302,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>3.553186791519304</v>
+        <v>3.553186893463135</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -9311,7 +9319,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.367269</t>
         </is>
       </c>
     </row>
@@ -9390,16 +9398,20 @@
         <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>2.409832158239197</v>
+        <v>2.409832239151001</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.5675420211814656</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>22</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9437,7 +9449,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>0.5916727785823274</v>
@@ -9447,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9478,7 +9490,7 @@
         <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>2.639020714618178</v>
+        <v>2.639020681381226</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9487,7 +9499,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9578,7 @@
         <v>4</v>
       </c>
       <c r="V102" t="n">
-        <v>2.648480710377591</v>
+        <v>2.648480653762817</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9575,7 +9587,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9654,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>5.83202896067018</v>
+        <v>5.832028865814209</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9663,7 +9675,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9754,7 @@
         <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>2.716722982404087</v>
+        <v>2.716722965240479</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9751,7 +9763,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -9789,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9799,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="O105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -9830,16 +9842,20 @@
         <v>4</v>
       </c>
       <c r="V105" t="n">
-        <v>3.594722185077816</v>
+        <v>3.594722270965576</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>410</v>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="V106" t="n">
-        <v>5.423289001946403</v>
+        <v>5.423288822174072</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9927,7 +9943,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -9944,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -9965,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -9975,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10006,7 +10022,7 @@
         <v>4</v>
       </c>
       <c r="V107" t="n">
-        <v>4.063030501720379</v>
+        <v>4.06303071975708</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -10015,7 +10031,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -10094,7 +10110,7 @@
         <v>4</v>
       </c>
       <c r="V108" t="n">
-        <v>3.135686835290813</v>
+        <v>3.135686874389648</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -10103,7 +10119,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.368269</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10157,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L109" t="n">
         <v>0.8631205685666311</v>
@@ -10151,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10182,7 +10198,7 @@
         <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>2.419034017600436</v>
+        <v>2.419034004211426</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10191,7 +10207,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10286,7 @@
         <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>3.260327436467227</v>
+        <v>3.260327339172363</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10279,7 +10295,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10358,7 +10374,7 @@
         <v>4</v>
       </c>
       <c r="V111" t="n">
-        <v>3.58680957171517</v>
+        <v>3.586809635162354</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10367,7 +10383,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10462,7 @@
         <v>4</v>
       </c>
       <c r="V112" t="n">
-        <v>2.937593823821612</v>
+        <v>2.937593936920166</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -10455,7 +10471,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="V113" t="n">
-        <v>2.648480710377591</v>
+        <v>2.648480653762817</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -10543,7 +10559,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -10581,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -10591,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10622,20 +10638,16 @@
         <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>2.952835633971183</v>
+        <v>2.952835559844971</v>
       </c>
       <c r="W114" t="n">
-        <v>3</v>
-      </c>
-      <c r="X114" t="n">
-        <v>0.5302154051003889</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="V115" t="n">
-        <v>1.942150011874695</v>
+        <v>1.942149996757507</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -10723,7 +10735,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10802,20 +10814,20 @@
         <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>2.590169158330843</v>
+        <v>2.590169191360474</v>
       </c>
       <c r="W116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X116" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.44571000435946</v>
       </c>
       <c r="Y116" t="n">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.369268</t>
         </is>
       </c>
     </row>
@@ -10894,7 +10906,7 @@
         <v>4</v>
       </c>
       <c r="V117" t="n">
-        <v>3.204414368683929</v>
+        <v>3.204414367675781</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
@@ -10903,7 +10915,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -10920,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -10941,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -10951,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -10982,16 +10994,20 @@
         <v>4</v>
       </c>
       <c r="V118" t="n">
-        <v>4.359033058455959</v>
+        <v>4.359033107757568</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.5197316968394073</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>31</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -11029,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11039,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -11070,16 +11086,20 @@
         <v>4</v>
       </c>
       <c r="V119" t="n">
-        <v>5.077481554787667</v>
+        <v>5.077481746673584</v>
       </c>
       <c r="W119" t="n">
-        <v>0</v>
-      </c>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0.4790300472003629</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>96</v>
+      </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11178,7 @@
         <v>4</v>
       </c>
       <c r="V120" t="n">
-        <v>3.055382846999021</v>
+        <v>3.05538272857666</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
@@ -11167,7 +11187,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11246,7 +11266,7 @@
         <v>4</v>
       </c>
       <c r="V121" t="n">
-        <v>2.412684371307054</v>
+        <v>2.412684440612793</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11255,7 +11275,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11272,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -11293,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -11303,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11334,16 +11354,20 @@
         <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>4.904294735973747</v>
+        <v>4.904294967651367</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
-      </c>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.4031272813482388</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>96</v>
+      </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11405,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>0.5916727785823274</v>
@@ -11391,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -11422,7 +11446,7 @@
         <v>4</v>
       </c>
       <c r="V123" t="n">
-        <v>2.118784059684008</v>
+        <v>2.118783950805664</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
@@ -11431,7 +11455,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11510,7 +11534,7 @@
         <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>4.240592642697917</v>
+        <v>4.240592479705811</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11519,7 +11543,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11622,7 @@
         <v>4</v>
       </c>
       <c r="V125" t="n">
-        <v>3.895752985868624</v>
+        <v>3.895752906799316</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
@@ -11607,7 +11631,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11645,7 +11669,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K126" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L126" t="n">
         <v>0.5916727785823274</v>
@@ -11655,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11686,7 +11710,7 @@
         <v>4</v>
       </c>
       <c r="V126" t="n">
-        <v>2.163112610938815</v>
+        <v>2.163112640380859</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11695,7 +11719,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -11733,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -11743,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="O127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -11774,20 +11798,16 @@
         <v>4</v>
       </c>
       <c r="V127" t="n">
-        <v>3.329940945213353</v>
+        <v>3.329941034317017</v>
       </c>
       <c r="W127" t="n">
-        <v>2</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.5785117996979956</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.370267</t>
         </is>
       </c>
     </row>
@@ -11866,20 +11886,20 @@
         <v>4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.972519067205562</v>
+        <v>1.972519040107727</v>
       </c>
       <c r="W128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X128" t="n">
-        <v>0.5266807513020847</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y128" t="n">
         <v>381</v>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -11896,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -11917,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -11927,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -11958,16 +11978,20 @@
         <v>4</v>
       </c>
       <c r="V129" t="n">
-        <v>4.440910211003738</v>
+        <v>4.440910339355469</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
-      </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.4244076469689558</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>8</v>
+      </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12046,16 +12070,20 @@
         <v>4</v>
       </c>
       <c r="V130" t="n">
-        <v>3.516063611962141</v>
+        <v>3.516063690185547</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
-      </c>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0.501762815367752</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>393</v>
+      </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12134,20 +12162,20 @@
         <v>4</v>
       </c>
       <c r="V131" t="n">
-        <v>3.074729324461126</v>
+        <v>3.074729442596436</v>
       </c>
       <c r="W131" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X131" t="n">
-        <v>0.5818640804157564</v>
+        <v>0.5570681302227887</v>
       </c>
       <c r="Y131" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12226,16 +12254,20 @@
         <v>4</v>
       </c>
       <c r="V132" t="n">
-        <v>2.655466300691629</v>
+        <v>2.655466318130493</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
-      </c>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.5082895947655132</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>124</v>
+      </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12314,20 +12346,20 @@
         <v>4</v>
       </c>
       <c r="V133" t="n">
-        <v>2.583285074911261</v>
+        <v>2.583285093307495</v>
       </c>
       <c r="W133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X133" t="n">
-        <v>0.5223705789444759</v>
+        <v>0.4675230342807256</v>
       </c>
       <c r="Y133" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12344,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -12365,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -12375,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12406,16 +12438,20 @@
         <v>4</v>
       </c>
       <c r="V134" t="n">
-        <v>3.849987396615937</v>
+        <v>3.849987506866455</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
-      </c>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0.4521658349660818</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>368</v>
+      </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12494,7 +12530,7 @@
         <v>4</v>
       </c>
       <c r="V135" t="n">
-        <v>3.845773675909803</v>
+        <v>3.845773696899414</v>
       </c>
       <c r="W135" t="n">
         <v>0</v>
@@ -12503,7 +12539,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.371267</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12577,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K136" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L136" t="n">
         <v>0.9852281360342515</v>
@@ -12551,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="O136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -12582,7 +12618,7 @@
         <v>4</v>
       </c>
       <c r="V136" t="n">
-        <v>2.472656346422046</v>
+        <v>2.47265625</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
@@ -12591,7 +12627,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -12629,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12639,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12670,16 +12706,20 @@
         <v>4</v>
       </c>
       <c r="V137" t="n">
-        <v>5.12409239385062</v>
+        <v>5.124092578887939</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.4713506653387178</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>64</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12798,7 @@
         <v>4</v>
       </c>
       <c r="V138" t="n">
-        <v>2.202156882259307</v>
+        <v>2.202156782150269</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
@@ -12767,7 +12807,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -12846,16 +12886,20 @@
         <v>4</v>
       </c>
       <c r="V139" t="n">
-        <v>3.047569939027513</v>
+        <v>3.047569990158081</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
-      </c>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0.4557292928473223</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>98</v>
+      </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -12934,7 +12978,7 @@
         <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>3.933206306173607</v>
+        <v>3.93320631980896</v>
       </c>
       <c r="W140" t="n">
         <v>0</v>
@@ -12943,7 +12987,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -12960,7 +13004,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -12981,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -12991,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="O141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -13022,20 +13066,16 @@
         <v>4</v>
       </c>
       <c r="V141" t="n">
-        <v>3.311416016762584</v>
+        <v>3.311415910720825</v>
       </c>
       <c r="W141" t="n">
-        <v>1</v>
-      </c>
-      <c r="X141" t="n">
-        <v>0.54226839054973</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -13073,7 +13113,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13083,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -13114,7 +13154,7 @@
         <v>4</v>
       </c>
       <c r="V142" t="n">
-        <v>3.590182582069499</v>
+        <v>3.590182542800903</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -13123,7 +13163,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -13140,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -13161,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -13171,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="O143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -13202,20 +13242,16 @@
         <v>4</v>
       </c>
       <c r="V143" t="n">
-        <v>3.018231940192769</v>
+        <v>3.018231868743896</v>
       </c>
       <c r="W143" t="n">
-        <v>1</v>
-      </c>
-      <c r="X143" t="n">
-        <v>0.493352578649596</v>
-      </c>
-      <c r="Y143" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -13294,7 +13330,7 @@
         <v>4</v>
       </c>
       <c r="V144" t="n">
-        <v>3.209714930583075</v>
+        <v>3.209714889526367</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
@@ -13303,7 +13339,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -13320,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -13341,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13351,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -13382,16 +13418,20 @@
         <v>4</v>
       </c>
       <c r="V145" t="n">
-        <v>3.028637576344792</v>
+        <v>3.028637647628784</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
-      </c>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.4557742705184364</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>262</v>
+      </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.372267</t>
         </is>
       </c>
     </row>
@@ -13470,7 +13510,7 @@
         <v>4</v>
       </c>
       <c r="V146" t="n">
-        <v>6.283157893934959</v>
+        <v>6.283157825469971</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
@@ -13479,7 +13519,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373312</t>
         </is>
       </c>
     </row>
@@ -13496,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -13517,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13527,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -13558,7 +13598,7 @@
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>3.145746562510539</v>
+        <v>3.145746469497681</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
@@ -13567,7 +13607,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373396</t>
         </is>
       </c>
     </row>
@@ -13584,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -13605,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13615,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13646,16 +13686,20 @@
         <v>4</v>
       </c>
       <c r="V148" t="n">
-        <v>2.728515275478682</v>
+        <v>2.728515386581421</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.5488341046113124</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>53</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373396</t>
         </is>
       </c>
     </row>
@@ -13672,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -13693,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -13703,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -13734,16 +13778,20 @@
         <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>2.970996528697931</v>
+        <v>2.970996618270874</v>
       </c>
       <c r="W149" t="n">
-        <v>0</v>
-      </c>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0.4854215577252513</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>53</v>
+      </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373396</t>
         </is>
       </c>
     </row>
@@ -13822,16 +13870,20 @@
         <v>4</v>
       </c>
       <c r="V150" t="n">
-        <v>2.900296912943146</v>
+        <v>2.900296926498413</v>
       </c>
       <c r="W150" t="n">
-        <v>0</v>
-      </c>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0.5792182599846987</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>372</v>
+      </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373396</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -13869,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -13879,7 +13931,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -13910,16 +13962,20 @@
         <v>4</v>
       </c>
       <c r="V151" t="n">
-        <v>3.369989561296817</v>
+        <v>3.369989633560181</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
-      </c>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.5391625613581763</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>4</v>
+      </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:19.922067</t>
+          <t>2025-10-29T23:38:48.373396</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R50_Pentropia.xlsx
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,11 +612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.900344</t>
+          <t>2025-11-13T06:51:54.338978</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -741,13 +741,17 @@
         <v>3.864998698234558</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5135400655639983</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>444</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.900344</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,13 +833,17 @@
         <v>2.847762703895569</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>377</v>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.900344</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -862,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -876,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -917,17 +925,13 @@
         <v>18.29147052764893</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.901346</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -944,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -954,7 +958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -968,11 +972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1015,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.901346</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1042,7 +1046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1056,11 +1060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1097,13 +1101,17 @@
         <v>2.021633386611938</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5495437547794828</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>346</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.901346</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1144,7 +1152,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1191,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.901346</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1226,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1232,7 +1240,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1273,13 +1281,17 @@
         <v>3.232072234153748</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4868788731020857</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>61</v>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.901346</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1320,7 +1332,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1361,17 +1373,13 @@
         <v>4.279626369476318</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.4388760067989746</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.902344</t>
+          <t>2025-11-13T06:51:54.339977</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1406,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1412,7 +1420,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1459,7 +1467,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.902344</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1494,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1500,7 +1508,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1541,17 +1549,17 @@
         <v>3.247521758079529</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4543085831639484</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.902344</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1586,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1592,7 +1600,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1633,13 +1641,17 @@
         <v>17.15424919128418</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>268</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.902344</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1678,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1680,7 +1692,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1727,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.902344</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1766,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1768,7 +1780,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1809,17 +1821,17 @@
         <v>2.979988813400269</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4090454577821077</v>
       </c>
       <c r="Y15" t="n">
         <v>33</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.903345</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1860,7 +1872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1901,17 +1913,17 @@
         <v>3.7317134141922</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y16" t="n">
         <v>283</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.903345</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1950,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1952,7 +1964,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1993,17 +2005,13 @@
         <v>8.241034507751465</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5022684797721876</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.903345</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2044,7 +2052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2085,17 +2093,13 @@
         <v>2.455918312072754</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.903345</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -2122,7 +2126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2136,11 +2140,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2177,13 +2181,17 @@
         <v>2.903743863105774</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5884403511369705</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>65</v>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.903345</t>
+          <t>2025-11-13T06:51:54.340976</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -2210,7 +2218,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2224,11 +2232,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2271,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2306,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2312,7 +2320,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2353,17 +2361,17 @@
         <v>1.787505567073822</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4141881833999855</v>
       </c>
       <c r="Y21" t="n">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2404,7 +2412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2445,13 +2453,17 @@
         <v>3.109677195549011</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2490,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2492,7 +2504,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2539,7 +2551,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2566,7 +2578,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2580,11 +2592,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2627,7 +2639,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2668,7 +2680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2709,17 +2721,17 @@
         <v>2.019299268722534</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.5230014453398339</v>
       </c>
       <c r="Y25" t="n">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.904344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2760,7 +2772,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2801,13 +2813,17 @@
         <v>5.379607200622559</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5872309548321561</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>371</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.905344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2834,7 +2850,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2848,11 +2864,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2889,13 +2905,17 @@
         <v>2.081863641738892</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4512413887188916</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.905344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2942,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2936,7 +2956,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -2983,7 +3003,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.905344</t>
+          <t>2025-11-13T06:51:54.341975</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3010,7 +3030,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3024,11 +3044,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3065,13 +3085,17 @@
         <v>3.506299138069153</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4436880874433667</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>281</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.906345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3122,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3112,7 +3136,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3153,17 +3177,17 @@
         <v>2.142898440361023</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y30" t="n">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.907346</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3204,7 +3228,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3245,17 +3269,13 @@
         <v>2.036471724510193</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.4863890037284231</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.907346</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3296,7 +3316,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3343,7 +3363,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.908345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3384,7 +3404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3428,14 +3448,14 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5230014453398339</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y33" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.908345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3476,7 +3496,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3517,13 +3537,17 @@
         <v>2.848228096961975</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.501762815367752</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>184</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.908345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3550,7 +3574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3564,11 +3588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3611,7 +3635,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.908345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3652,7 +3676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3693,17 +3717,13 @@
         <v>4.0845627784729</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4512413887188916</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.908345</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3750,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3744,7 +3764,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3791,7 +3811,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.342975</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3832,7 +3852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3873,17 +3893,17 @@
         <v>2.66642689704895</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.4856368296634629</v>
       </c>
       <c r="Y38" t="n">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3924,7 +3944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
@@ -3965,17 +3985,13 @@
         <v>4.571045398712158</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4016,7 +4032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4057,13 +4073,17 @@
         <v>2.738109350204468</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4593020287295597</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>406</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4090,7 +4110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4104,11 +4124,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4145,13 +4165,17 @@
         <v>2.16313362121582</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4777354579378964</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>241</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4192,7 +4216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
@@ -4233,13 +4257,17 @@
         <v>2.806650519371033</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>293</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.909349</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4280,7 +4308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
@@ -4327,7 +4355,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.910538</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4382,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4368,7 +4396,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4409,17 +4437,13 @@
         <v>3.636664748191833</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.4148089303468181</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.910538</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4460,7 +4484,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4501,17 +4525,13 @@
         <v>3.034366965293884</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.5320394753435462</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.910538</t>
+          <t>2025-11-13T06:51:54.343975</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4552,7 +4572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4599,7 +4619,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.910538</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4646,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4640,7 +4660,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4687,7 +4707,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.910538</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4728,7 +4748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4769,17 +4789,13 @@
         <v>3.8158860206604</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.4377414216682759</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4820,7 +4836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4864,14 +4880,14 @@
         <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.5116586907214196</v>
       </c>
       <c r="Y49" t="n">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4912,7 +4928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -4953,13 +4969,17 @@
         <v>2.735380530357361</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.5989101021594682</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>411</v>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5000,7 +5020,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5041,17 +5061,13 @@
         <v>3.15588116645813</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.4777354579378964</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5094,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5092,7 +5108,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5136,14 +5152,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5186,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5184,7 +5200,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5228,14 +5244,14 @@
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>0.44571000435946</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y53" t="n">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.911536</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5262,7 +5278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5276,11 +5292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -5317,13 +5333,17 @@
         <v>3.47460675239563</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>390</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.912531</t>
+          <t>2025-11-13T06:51:54.344976</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -5350,7 +5370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5364,11 +5384,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -5405,13 +5425,17 @@
         <v>2.219000458717346</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.4690142496053366</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>416</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.912531</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5452,7 +5476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
@@ -5493,17 +5517,13 @@
         <v>5.428624868392944</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4593020287295597</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.912531</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5550,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5544,7 +5564,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5585,17 +5605,13 @@
         <v>3.475237488746643</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.4790300472003629</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.912531</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5622,7 +5638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5636,11 +5652,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -5683,7 +5699,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.913542</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5726,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5724,7 +5740,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
@@ -5765,13 +5781,17 @@
         <v>7.668370008468628</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.4074696377498429</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>120</v>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.913542</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5798,7 +5818,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5812,11 +5832,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -5859,7 +5879,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.913542</t>
+          <t>2025-11-13T06:51:54.345975</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5906,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5900,7 +5920,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5944,14 +5964,14 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.4483704581800904</v>
       </c>
       <c r="Y61" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.913542</t>
+          <t>2025-11-13T06:51:54.346731</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5998,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5992,7 +6012,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6033,13 +6053,17 @@
         <v>5.035804033279419</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5144008398418366</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>141</v>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.913542</t>
+          <t>2025-11-13T06:51:54.346731</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6080,7 +6104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6124,14 +6148,14 @@
         <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>0.473293756916572</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y63" t="n">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.914533</t>
+          <t>2025-11-13T06:51:54.346731</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6172,7 +6196,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6216,14 +6240,14 @@
         <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5677867004138727</v>
       </c>
       <c r="Y64" t="n">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.914533</t>
+          <t>2025-11-13T06:51:54.346731</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6264,7 +6288,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6308,14 +6332,14 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4623422152178822</v>
+        <v>0.4092900825439996</v>
       </c>
       <c r="Y65" t="n">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.914533</t>
+          <t>2025-11-13T06:51:54.346731</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6356,7 +6380,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6397,17 +6421,13 @@
         <v>2.898029208183289</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.4675230342807256</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.914533</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6448,7 +6468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6489,17 +6509,13 @@
         <v>2.190554141998291</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0.5939073734228317</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.914533</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -6526,7 +6542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6540,11 +6556,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="b">
         <v>1</v>
@@ -6587,7 +6603,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6630,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6628,7 +6644,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6669,17 +6685,13 @@
         <v>6.16321587562561</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.4895566329146183</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6720,7 +6732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6761,17 +6773,13 @@
         <v>2.700364351272583</v>
       </c>
       <c r="W70" t="n">
-        <v>4</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.5860033669621664</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6812,7 +6820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6853,13 +6861,17 @@
         <v>3.648892879486084</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.425412102530377</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>293</v>
+      </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6898,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6900,7 +6912,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6941,13 +6953,17 @@
         <v>2.320841431617737</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>293</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6990,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6988,7 +7004,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7032,14 +7048,14 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5596590357933551</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y73" t="n">
         <v>326</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.915530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7082,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7080,7 +7096,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7121,17 +7137,13 @@
         <v>3.194457292556763</v>
       </c>
       <c r="W74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.4074696377498429</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7170,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7172,7 +7184,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7213,17 +7225,13 @@
         <v>2.848981857299805</v>
       </c>
       <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0.4807672342116082</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7264,7 +7272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7305,13 +7313,17 @@
         <v>2.458168148994446</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4323257428189228</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>286</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7352,7 +7364,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7393,17 +7405,13 @@
         <v>2.716602325439453</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7444,7 +7452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7485,17 +7493,13 @@
         <v>3.182361006736755</v>
       </c>
       <c r="W78" t="n">
-        <v>3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5376999801530733</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7526,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7536,7 +7540,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7577,17 +7581,13 @@
         <v>3.13527238368988</v>
       </c>
       <c r="W79" t="n">
-        <v>4</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0.4877942841411272</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.916530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -7614,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7628,11 +7628,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="b">
         <v>1</v>
@@ -7675,7 +7675,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7757,17 +7757,13 @@
         <v>2.348569869995117</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7794,7 +7790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7808,11 +7804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>1</v>
@@ -7855,7 +7851,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7882,7 +7878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7896,11 +7892,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="b">
         <v>1</v>
@@ -7937,13 +7933,17 @@
         <v>2.063066363334656</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.5383790395385386</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>135</v>
+      </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8025,17 +8025,13 @@
         <v>4.236417770385742</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
-      </c>
-      <c r="X84" t="n">
-        <v>0.577323429790132</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8058,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8076,7 +8072,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8117,13 +8113,17 @@
         <v>4.380986452102661</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>29</v>
+      </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.917530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -8150,7 +8150,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8164,11 +8164,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="b">
         <v>1</v>
@@ -8211,7 +8211,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8238,7 +8238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8252,11 +8252,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8293,13 +8293,17 @@
         <v>3.134974718093872</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.4508327298139478</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>147</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8340,7 +8344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8381,17 +8385,13 @@
         <v>2.722260475158691</v>
       </c>
       <c r="W88" t="n">
-        <v>1</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0.5113602524916701</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8473,17 +8473,17 @@
         <v>3.729132533073425</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4987787430366869</v>
+        <v>0.5202230023486417</v>
       </c>
       <c r="Y89" t="n">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="b">
         <v>1</v>
@@ -8571,7 +8571,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8653,13 +8653,17 @@
         <v>2.292493104934692</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>43</v>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.918530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8700,7 +8704,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8741,17 +8745,13 @@
         <v>2.465856075286865</v>
       </c>
       <c r="W92" t="n">
-        <v>2</v>
-      </c>
-      <c r="X92" t="n">
-        <v>0.425412102530377</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8836,14 +8836,14 @@
         <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y93" t="n">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -8928,14 +8928,14 @@
         <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4321616102834998</v>
       </c>
       <c r="Y94" t="n">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -8962,7 +8962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9023,7 +9023,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9105,13 +9105,17 @@
         <v>4.461112976074219</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5960663167432091</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>208</v>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9152,7 +9156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9193,17 +9197,17 @@
         <v>3.251365065574646</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y97" t="n">
         <v>136</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.919530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -9230,7 +9234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9244,11 +9248,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="b">
         <v>1</v>
@@ -9291,7 +9295,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.920530</t>
+          <t>2025-11-13T06:51:54.354265</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9332,7 +9336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9379,7 +9383,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.920530</t>
+          <t>2025-11-13T06:51:54.364678</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9420,7 +9424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9461,13 +9465,17 @@
         <v>2.211987257003784</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.5451911357740479</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>286</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.920530</t>
+          <t>2025-11-13T06:51:54.364678</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9508,7 +9516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9555,7 +9563,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.925754</t>
+          <t>2025-11-13T06:51:54.365394</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9590,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9596,7 +9604,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9637,13 +9645,17 @@
         <v>2.74618661403656</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>179</v>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.925754</t>
+          <t>2025-11-13T06:51:54.365394</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9684,7 +9696,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9731,7 +9743,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.365394</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9772,7 +9784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9813,13 +9825,17 @@
         <v>5.411996126174927</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
-      </c>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>170</v>
+      </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.365925</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9862,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -9860,7 +9876,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
@@ -9901,17 +9917,17 @@
         <v>3.214111328125</v>
       </c>
       <c r="W105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y105" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.365925</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9954,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -9952,7 +9968,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
@@ -9999,7 +10015,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.365925</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10042,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10040,7 +10056,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10081,17 +10097,13 @@
         <v>2.050779163837433</v>
       </c>
       <c r="W107" t="n">
-        <v>1</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0.4648690042010548</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.365925</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10130,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10132,7 +10144,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10173,13 +10185,17 @@
         <v>3.249354004859924</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>110</v>
+      </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.926752</t>
+          <t>2025-11-13T06:51:54.366470</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10222,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10220,7 +10236,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10261,17 +10277,13 @@
         <v>2.169737458229065</v>
       </c>
       <c r="W109" t="n">
-        <v>2</v>
-      </c>
-      <c r="X109" t="n">
-        <v>0.493119603626492</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.927746</t>
+          <t>2025-11-13T06:51:54.366470</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10310,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10312,7 +10324,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10359,7 +10371,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.927746</t>
+          <t>2025-11-13T06:51:54.366470</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10400,7 +10412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10441,17 +10453,13 @@
         <v>3.238019347190857</v>
       </c>
       <c r="W111" t="n">
-        <v>1</v>
-      </c>
-      <c r="X111" t="n">
-        <v>0.5202230023486417</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.928751</t>
+          <t>2025-11-13T06:51:54.366470</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10486,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10492,7 +10500,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10539,7 +10547,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.928751</t>
+          <t>2025-11-13T06:51:54.367020</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -10566,7 +10574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10580,11 +10588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="b">
         <v>1</v>
@@ -10621,13 +10629,17 @@
         <v>2.208970308303833</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.5327003538216112</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>108</v>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.928751</t>
+          <t>2025-11-13T06:51:54.367020</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -10668,7 +10680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="b">
@@ -10709,17 +10721,17 @@
         <v>2.446838736534119</v>
       </c>
       <c r="W114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>0.436866734866274</v>
+        <v>0.5005358046457723</v>
       </c>
       <c r="Y114" t="n">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.929746</t>
+          <t>2025-11-13T06:51:54.367020</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -10746,7 +10758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -10760,11 +10772,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="b">
         <v>1</v>
@@ -10807,7 +10819,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.929746</t>
+          <t>2025-11-13T06:51:54.367570</t>
         </is>
       </c>
     </row>
@@ -10834,7 +10846,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -10848,7 +10860,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="b">
@@ -10895,7 +10907,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.929746</t>
+          <t>2025-11-13T06:51:54.367570</t>
         </is>
       </c>
     </row>
@@ -10922,7 +10934,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -10936,7 +10948,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="b">
@@ -10977,17 +10989,17 @@
         <v>3.366743445396423</v>
       </c>
       <c r="W117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X117" t="n">
-        <v>0.4187963879681738</v>
+        <v>0.4770195457203851</v>
       </c>
       <c r="Y117" t="n">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.930755</t>
+          <t>2025-11-13T06:51:54.367570</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11026,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11028,7 +11040,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="b">
@@ -11069,17 +11081,13 @@
         <v>4.427846670150757</v>
       </c>
       <c r="W118" t="n">
-        <v>2</v>
-      </c>
-      <c r="X118" t="n">
-        <v>0.510552993367098</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.930755</t>
+          <t>2025-11-13T06:51:54.367570</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11114,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -11120,7 +11128,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="b">
@@ -11161,17 +11169,13 @@
         <v>4.879163980484009</v>
       </c>
       <c r="W119" t="n">
-        <v>1</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0.5274859802996413</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.930755</t>
+          <t>2025-11-13T06:51:54.368080</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -11212,7 +11216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="b">
@@ -11256,14 +11260,14 @@
         <v>1</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5960663167432091</v>
+        <v>0.497348430591891</v>
       </c>
       <c r="Y120" t="n">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.932002</t>
+          <t>2025-11-13T06:51:54.368115</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -11290,7 +11294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -11304,11 +11308,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="b">
         <v>1</v>
@@ -11345,13 +11349,17 @@
         <v>2.818434000015259</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
-      </c>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.5284063292308575</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>223</v>
+      </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.932595</t>
+          <t>2025-11-13T06:51:54.368115</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -11378,7 +11386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -11392,11 +11400,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="b">
         <v>1</v>
@@ -11433,13 +11441,17 @@
         <v>2.236281871795654</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
-      </c>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>21</v>
+      </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.932595</t>
+          <t>2025-11-13T06:51:54.368115</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -11480,7 +11492,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="b">
@@ -11521,17 +11533,17 @@
         <v>3.031773328781128</v>
       </c>
       <c r="W123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.4199949831636006</v>
       </c>
       <c r="Y123" t="n">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.933191</t>
+          <t>2025-11-13T06:51:54.368625</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -11558,7 +11570,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -11572,11 +11584,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="b">
         <v>1</v>
@@ -11613,13 +11625,17 @@
         <v>3.063225507736206</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.5456432697223719</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>295</v>
+      </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.933727</t>
+          <t>2025-11-13T06:51:54.368672</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -11660,7 +11676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="b">
@@ -11704,14 +11720,14 @@
         <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>0.4641560129943472</v>
+        <v>0.4281848449949526</v>
       </c>
       <c r="Y125" t="n">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.933727</t>
+          <t>2025-11-13T06:51:54.368672</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -11738,7 +11754,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -11752,11 +11768,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="b">
         <v>1</v>
@@ -11799,7 +11815,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.933727</t>
+          <t>2025-11-13T06:51:54.368672</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11842,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -11840,7 +11856,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="b">
@@ -11887,7 +11903,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.934724</t>
+          <t>2025-11-13T06:51:54.368672</t>
         </is>
       </c>
     </row>
@@ -11914,7 +11930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -11928,7 +11944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="b">
@@ -11969,17 +11985,13 @@
         <v>2.671683430671692</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.5451911357740479</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.934724</t>
+          <t>2025-11-13T06:51:54.369213</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -12020,7 +12032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="b">
@@ -12061,13 +12073,17 @@
         <v>1.809760332107544</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
-      </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.5315225784600687</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>265</v>
+      </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.934724</t>
+          <t>2025-11-13T06:51:54.369213</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -12108,7 +12124,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="b">
@@ -12152,14 +12168,14 @@
         <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.5361410903109534</v>
       </c>
       <c r="Y130" t="n">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.934724</t>
+          <t>2025-11-13T06:51:54.369213</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -12200,7 +12216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="b">
@@ -12241,13 +12257,17 @@
         <v>3.078553318977356</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5481537235508409</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>257</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.934724</t>
+          <t>2025-11-13T06:51:54.369213</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -12288,7 +12308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="b">
@@ -12329,17 +12349,17 @@
         <v>3.984445333480835</v>
       </c>
       <c r="W132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5774172848530235</v>
       </c>
       <c r="Y132" t="n">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.935728</t>
+          <t>2025-11-13T06:51:54.369753</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -12380,7 +12400,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="b">
@@ -12421,17 +12441,13 @@
         <v>4.569465398788452</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.516137324287291</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.935728</t>
+          <t>2025-11-13T06:51:54.369753</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12474,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12472,7 +12488,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="b">
@@ -12519,7 +12535,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.935728</t>
+          <t>2025-11-13T06:51:54.369753</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -12546,7 +12562,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -12560,11 +12576,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L135" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="b">
         <v>1</v>
@@ -12607,7 +12623,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.935728</t>
+          <t>2025-11-13T06:51:54.369753</t>
         </is>
       </c>
     </row>
@@ -12634,7 +12650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -12648,7 +12664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="b">
@@ -12692,14 +12708,14 @@
         <v>1</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5590372389537407</v>
+        <v>0.5255788829897272</v>
       </c>
       <c r="Y136" t="n">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.935728</t>
+          <t>2025-11-13T06:51:54.370293</t>
         </is>
       </c>
     </row>
@@ -12716,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -12726,7 +12742,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -12740,11 +12756,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="b">
         <v>1</v>
@@ -12781,13 +12797,17 @@
         <v>1.941580653190613</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.5580351081062411</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>58</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370293</t>
         </is>
       </c>
     </row>
@@ -12814,7 +12834,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -12828,7 +12848,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="b">
@@ -12869,17 +12889,13 @@
         <v>4.126085758209229</v>
       </c>
       <c r="W138" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370293</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -12920,7 +12936,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="b">
@@ -12961,17 +12977,13 @@
         <v>3.553491353988647</v>
       </c>
       <c r="W139" t="n">
-        <v>1</v>
-      </c>
-      <c r="X139" t="n">
-        <v>0.4914530323227457</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370293</t>
         </is>
       </c>
     </row>
@@ -12988,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -12998,7 +13010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -13012,11 +13024,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="b">
         <v>1</v>
@@ -13053,13 +13065,17 @@
         <v>2.059907197952271</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.4301435087930859</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>52</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370804</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -13100,7 +13116,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="b">
@@ -13147,7 +13163,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370913</t>
         </is>
       </c>
     </row>
@@ -13174,7 +13190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -13188,7 +13204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="b">
@@ -13235,7 +13251,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.936724</t>
+          <t>2025-11-13T06:51:54.370913</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -13262,7 +13278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -13276,11 +13292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="b">
         <v>1</v>
@@ -13317,13 +13333,17 @@
         <v>6.529798984527588</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
-      </c>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>312</v>
+      </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.370913</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -13364,7 +13384,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="b">
@@ -13405,13 +13425,17 @@
         <v>1.851258158683777</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
-      </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.5157729791015118</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>379</v>
+      </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.371424</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -13452,7 +13476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="b">
@@ -13493,17 +13517,17 @@
         <v>4.207494974136353</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X145" t="n">
-        <v>0.5327003538216112</v>
+        <v>0.577323429790132</v>
       </c>
       <c r="Y145" t="n">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.371458</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13554,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -13544,7 +13568,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="b">
@@ -13585,17 +13609,13 @@
         <v>3.347555041313171</v>
       </c>
       <c r="W146" t="n">
-        <v>2</v>
-      </c>
-      <c r="X146" t="n">
-        <v>0.5992507399515848</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.371458</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13642,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -13636,7 +13656,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="b">
@@ -13677,13 +13697,17 @@
         <v>8.398797512054443</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0.4899508266739531</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>421</v>
+      </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.371458</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -13724,7 +13748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="b">
@@ -13768,14 +13792,14 @@
         <v>1</v>
       </c>
       <c r="X148" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y148" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.937728</t>
+          <t>2025-11-13T06:51:54.371968</t>
         </is>
       </c>
     </row>
@@ -13802,7 +13826,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -13816,7 +13840,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="b">
@@ -13857,17 +13881,13 @@
         <v>2.447316527366638</v>
       </c>
       <c r="W149" t="n">
-        <v>1</v>
-      </c>
-      <c r="X149" t="n">
-        <v>0.4770195457203851</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.938723</t>
+          <t>2025-11-13T06:51:54.372023</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -13908,7 +13928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="b">
@@ -13949,17 +13969,13 @@
         <v>5.474562883377075</v>
       </c>
       <c r="W150" t="n">
-        <v>1</v>
-      </c>
-      <c r="X150" t="n">
-        <v>0.5909730561326387</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.938723</t>
+          <t>2025-11-13T06:51:54.372023</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -13986,7 +14002,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -14000,11 +14016,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O151" t="b">
         <v>1</v>
@@ -14047,7 +14063,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.938723</t>
+          <t>2025-11-13T06:51:54.372023</t>
         </is>
       </c>
     </row>
@@ -14074,7 +14090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -14088,7 +14104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="b">
@@ -14129,13 +14145,17 @@
         <v>3.469574451446533</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
-      </c>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0.4515883255430311</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>300</v>
+      </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.939728</t>
+          <t>2025-11-13T06:51:54.372023</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -14162,7 +14182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -14176,11 +14196,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="b">
         <v>1</v>
@@ -14217,13 +14237,17 @@
         <v>3.768404364585876</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
-      </c>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0.4163188360800481</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>72</v>
+      </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.939728</t>
+          <t>2025-11-13T06:51:54.372562</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -14250,7 +14274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -14264,11 +14288,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L154" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="b">
         <v>1</v>
@@ -14311,7 +14335,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.939728</t>
+          <t>2025-11-13T06:51:54.372562</t>
         </is>
       </c>
     </row>
@@ -14338,7 +14362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -14352,7 +14376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="b">
@@ -14399,7 +14423,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.372562</t>
         </is>
       </c>
     </row>
@@ -14426,7 +14450,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -14440,7 +14464,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="b">
@@ -14487,7 +14511,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.372562</t>
         </is>
       </c>
     </row>
@@ -14504,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -14514,7 +14538,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -14528,11 +14552,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" t="b">
         <v>1</v>
@@ -14575,7 +14599,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.373072</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -14616,7 +14640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="b">
@@ -14657,17 +14681,13 @@
         <v>3.647702217102051</v>
       </c>
       <c r="W158" t="n">
-        <v>1</v>
-      </c>
-      <c r="X158" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.373101</t>
         </is>
       </c>
     </row>
@@ -14694,7 +14714,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -14708,7 +14728,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="b">
@@ -14752,14 +14772,14 @@
         <v>1</v>
       </c>
       <c r="X159" t="n">
-        <v>0.4199949831636006</v>
+        <v>0.4559120683593517</v>
       </c>
       <c r="Y159" t="n">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.373101</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -14800,7 +14820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="b">
@@ -14847,7 +14867,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.940738</t>
+          <t>2025-11-13T06:51:54.373101</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -14874,7 +14894,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -14888,11 +14908,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="b">
         <v>1</v>
@@ -14929,13 +14949,17 @@
         <v>3.315830826759338</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
-      </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0.4377414216682759</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>22</v>
+      </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.941737</t>
+          <t>2025-11-13T06:51:54.373649</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14986,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -14976,7 +15000,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="b">
@@ -15020,14 +15044,14 @@
         <v>2</v>
       </c>
       <c r="X162" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.5404968167974218</v>
       </c>
       <c r="Y162" t="n">
         <v>281</v>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.941737</t>
+          <t>2025-11-13T06:51:54.373649</t>
         </is>
       </c>
     </row>
@@ -15044,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -15054,7 +15078,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -15068,11 +15092,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="b">
         <v>1</v>
@@ -15115,7 +15139,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.941737</t>
+          <t>2025-11-13T06:51:54.373649</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -15156,7 +15180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="b">
@@ -15203,7 +15227,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.942733</t>
+          <t>2025-11-13T06:51:54.373649</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15254,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -15244,7 +15268,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="b">
@@ -15285,13 +15309,17 @@
         <v>2.757277607917786</v>
       </c>
       <c r="W165" t="n">
-        <v>0</v>
-      </c>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0.5422299064876035</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>286</v>
+      </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.943587</t>
+          <t>2025-11-13T06:51:54.374189</t>
         </is>
       </c>
     </row>
@@ -15308,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -15318,7 +15346,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -15332,11 +15360,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="b">
         <v>1</v>
@@ -15373,13 +15401,17 @@
         <v>5.647400856018066</v>
       </c>
       <c r="W166" t="n">
-        <v>0</v>
-      </c>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0.4239730734667366</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>294</v>
+      </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.944106</t>
+          <t>2025-11-13T06:51:54.374189</t>
         </is>
       </c>
     </row>
@@ -15406,7 +15438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -15420,7 +15452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="b">
@@ -15461,13 +15493,17 @@
         <v>2.716691493988037</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>54</v>
+      </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.944106</t>
+          <t>2025-11-13T06:51:54.374189</t>
         </is>
       </c>
     </row>
@@ -15494,7 +15530,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -15508,7 +15544,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="b">
@@ -15549,17 +15585,13 @@
         <v>2.90464448928833</v>
       </c>
       <c r="W168" t="n">
-        <v>2</v>
-      </c>
-      <c r="X168" t="n">
-        <v>0.5085080461109799</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.944106</t>
+          <t>2025-11-13T06:51:54.374189</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15618,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -15600,7 +15632,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="b">
@@ -15641,17 +15673,13 @@
         <v>2.519846200942993</v>
       </c>
       <c r="W169" t="n">
-        <v>3</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5830427455252961</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.945132</t>
+          <t>2025-11-13T06:51:54.374729</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -15678,7 +15706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -15692,11 +15720,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" t="b">
         <v>1</v>
@@ -15733,13 +15761,17 @@
         <v>2.513474822044373</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5424358442695072</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>411</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.945132</t>
+          <t>2025-11-13T06:51:54.374729</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -15780,7 +15812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="b">
@@ -15824,14 +15856,14 @@
         <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.5481537235508409</v>
+        <v>0.5947511037682918</v>
       </c>
       <c r="Y171" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:46.945132</t>
+          <t>2025-11-13T06:51:54.374729</t>
         </is>
       </c>
     </row>
